--- a/常用关键词库.xlsx
+++ b/常用关键词库.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="8970" activeTab="4"/>
+    <workbookView windowWidth="20400" windowHeight="8370" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="关键词" sheetId="1" r:id="rId1"/>
@@ -736,17 +736,25 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="0"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -873,7 +881,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -883,47 +891,50 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1359,107 +1370,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17" t="s">
+      <c r="A3" s="17"/>
+      <c r="B3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="16"/>
-      <c r="B4" s="17" t="s">
+      <c r="A4" s="17"/>
+      <c r="B4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17" t="s">
+      <c r="A6" s="17"/>
+      <c r="B6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="18" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="16"/>
-      <c r="B8" s="17" t="s">
+      <c r="A8" s="17"/>
+      <c r="B8" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="18" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17" t="s">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17" t="s">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17" t="s">
+      <c r="A11" s="17"/>
+      <c r="B11" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="18" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1467,28 +1478,28 @@
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="18" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1"/>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="18" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1"/>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="18" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1503,7 +1514,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1"/>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="18" t="s">
         <v>32</v>
       </c>
       <c r="C16" t="s">
@@ -1624,7 +1635,7 @@
       <c r="B29" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="19" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1758,13 +1769,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="24.75" customHeight="1" spans="1:3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1951,178 +1962,178 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="2" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="3" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="4" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="5" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="6" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="7" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="9" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="9" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="10" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="11" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="11" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="7" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="7" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="13" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="14" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="13" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="6" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="6" t="s">
         <v>164</v>
       </c>
     </row>
@@ -2133,7 +2144,7 @@
       <c r="B17" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="14" t="s">
         <v>167</v>
       </c>
     </row>
@@ -2144,7 +2155,7 @@
       <c r="B18" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="14" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2230,10 +2241,10 @@
       <c r="A2" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>178</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -2242,10 +2253,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1"/>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -2254,10 +2265,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1"/>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>184</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -2266,10 +2277,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1"/>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>187</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -2278,10 +2289,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>190</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -2290,10 +2301,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>193</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -2304,10 +2315,10 @@
       <c r="A8" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>197</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -2316,10 +2327,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -2328,10 +2339,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>201</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -2340,10 +2351,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>177</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -2427,18 +2438,19 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
     <col min="2" max="4" width="9" style="1"/>
     <col min="5" max="5" width="10.875" style="2" customWidth="1"/>
     <col min="6" max="6" width="12.625" style="2"/>
+    <col min="10" max="10" width="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2472,19 +2484,19 @@
         <v>0.5</v>
       </c>
       <c r="D2" s="1">
-        <f t="shared" ref="D2:D19" si="0">C2*50+20</f>
+        <f t="shared" ref="D2:D21" si="0">C2*50+20</f>
         <v>45</v>
       </c>
       <c r="E2" s="2">
-        <f t="shared" ref="E2:E19" si="1">(B2+D2)*1.6/7.4-1.99</f>
+        <f t="shared" ref="E2:E21" si="1">(B2+D2)*1.6/7.4-1.99</f>
         <v>17.037027027027</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" ref="F2:F19" si="2">(B2+D2)*1.6/7.4</f>
+        <f t="shared" ref="F2:F21" si="2">(B2+D2)*1.6/7.4</f>
         <v>19.027027027027</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>221</v>
       </c>
@@ -2506,8 +2518,9 @@
         <f>(B3+D3)*1.6/7.4</f>
         <v>50.8108108108108</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>222</v>
       </c>
@@ -2529,8 +2542,9 @@
         <f>(B4+D4)*1.6/7.4</f>
         <v>55.1351351351351</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>223</v>
       </c>
@@ -2552,8 +2566,9 @@
         <f>(B5+D5)*1.6/7.4</f>
         <v>57.0810810810811</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>224</v>
       </c>
@@ -2575,8 +2590,9 @@
         <f>(B6+D6)*1.6/7.4</f>
         <v>36.7567567567568</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>225</v>
       </c>
@@ -2598,8 +2614,9 @@
         <f>(B7+D7)*1.6/7.4</f>
         <v>37.8378378378378</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>226</v>
       </c>
@@ -2621,8 +2638,9 @@
         <f>(B8+D8)*1.6/7.4</f>
         <v>41.945945945946</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>227</v>
       </c>
@@ -2644,8 +2662,9 @@
         <f>(B9+D9)*1.6/7.4</f>
         <v>20.5405405405405</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>228</v>
       </c>
@@ -2667,8 +2686,9 @@
         <f>(B10+D10)*1.6/7.4</f>
         <v>14.0540540540541</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>229</v>
       </c>
@@ -2690,8 +2710,9 @@
         <f>(B11+D11)*1.6/7.4</f>
         <v>10.8108108108108</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
         <v>230</v>
       </c>
@@ -2713,8 +2734,9 @@
         <f>(B12+D12)*1.6/7.4</f>
         <v>14.0540540540541</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
         <v>231</v>
       </c>
@@ -2736,8 +2758,9 @@
         <f>(B13+D13)*1.6/7.4</f>
         <v>15.1351351351351</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>160</v>
       </c>
@@ -2759,8 +2782,9 @@
         <f>(B14+D14)*1.6/7.4</f>
         <v>42.1621621621622</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>200</v>
       </c>
@@ -2782,8 +2806,9 @@
         <f>(B15+D15)*1.6/7.4</f>
         <v>48.6486486486486</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>220</v>
       </c>
@@ -2805,8 +2830,9 @@
         <f>(B16+D16)*1.6/7.4</f>
         <v>51.8918918918919</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>160</v>
       </c>
@@ -2828,8 +2854,9 @@
         <f>(B17+D17)*1.6/7.4</f>
         <v>45.6216216216216</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>200</v>
       </c>
@@ -2851,8 +2878,9 @@
         <f>(B18+D18)*1.6/7.4</f>
         <v>58.8108108108108</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>220</v>
       </c>
@@ -2874,8 +2902,9 @@
         <f>(B19+D19)*1.6/7.4</f>
         <v>65.7297297297297</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
         <v>232</v>
       </c>
@@ -2897,8 +2926,9 @@
         <f>(B20+D20)*1.6/7.4</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
         <v>233</v>
       </c>
@@ -2920,6 +2950,46 @@
         <f>(B21+D21)*1.6/7.4</f>
         <v>11.2432432432432</v>
       </c>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1">
+        <v>1022</v>
+      </c>
+      <c r="B22" s="1">
+        <v>32</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D22" s="1">
+        <f>C22*50+20</f>
+        <v>30</v>
+      </c>
+      <c r="E22" s="2">
+        <f>(B22+D22)*1.6/7.4-1.99</f>
+        <v>11.4154054054054</v>
+      </c>
+      <c r="F22" s="2">
+        <f>(B22+D22)*1.6/7.4</f>
+        <v>13.4054054054054</v>
+      </c>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="10:10">
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="10:10">
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="10:10">
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="10:10">
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="10:10">
+      <c r="J27" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/常用关键词库.xlsx
+++ b/常用关键词库.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="8370" activeTab="4"/>
+    <workbookView windowWidth="20400" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="关键词" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238">
   <si>
     <t>类型</t>
   </si>
@@ -267,6 +267,18 @@
   </si>
   <si>
     <t>Männer Langarm 3D Digitaldruck Pullover 3D Druck Kapuzenpullover Tier Kosmos Cartoon Sweatshirt Weihnachten Top Herbst Spaß Hoodie</t>
+  </si>
+  <si>
+    <t>圣诞连衣裙</t>
+  </si>
+  <si>
+    <t>weihnachten kleidung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weihnachten Party Kleid </t>
+  </si>
+  <si>
+    <t>weihnachts damen kleidung</t>
   </si>
   <si>
     <t>描述</t>
@@ -737,12 +749,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -881,17 +893,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -939,6 +951,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1356,10 +1371,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1736,8 +1751,28 @@
         <v>79</v>
       </c>
     </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="20"/>
+      <c r="B45" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="20"/>
+      <c r="B46" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="A12:A16"/>
@@ -1745,6 +1780,7 @@
     <mergeCell ref="A23:A30"/>
     <mergeCell ref="A32:A36"/>
     <mergeCell ref="A38:A42"/>
+    <mergeCell ref="A44:A46"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1773,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>2</v>
@@ -1781,98 +1817,98 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1880,57 +1916,57 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C12" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1"/>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C13" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C14" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B15" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C15" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1"/>
       <c r="B16" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C16" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C17" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1963,200 +1999,200 @@
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:3">
       <c r="A1" s="5" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" ht="20.1" customHeight="1" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" ht="20.1" customHeight="1" spans="1:3">
       <c r="A3" s="6" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" ht="20.1" customHeight="1" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" ht="20.1" customHeight="1" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" ht="20.1" customHeight="1" spans="1:3">
       <c r="A6" s="6" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" ht="20.1" customHeight="1" spans="1:3">
       <c r="A7" s="6" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="1:3">
       <c r="A8" s="6" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" ht="20.1" customHeight="1" spans="1:3">
       <c r="A9" s="6" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" ht="20.1" customHeight="1" spans="1:3">
       <c r="A10" s="6" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" ht="20.1" customHeight="1" spans="1:3">
       <c r="A11" s="6" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="1:3">
       <c r="A12" s="6" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="1:3">
       <c r="A13" s="6" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" ht="20.1" customHeight="1" spans="1:3">
       <c r="A14" s="6" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="6" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="6" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2222,143 +2258,143 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" s="4" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="4" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="4" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="4" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="4" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2366,61 +2402,61 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C12" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E12" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1"/>
       <c r="B13" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C13" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E13" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1"/>
       <c r="B14" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C14" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E14" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1"/>
       <c r="B15" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C15" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E15" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -2440,8 +2476,8 @@
   <sheetPr/>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2455,27 +2491,27 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B2" s="1">
         <v>43</v>
@@ -2484,21 +2520,21 @@
         <v>0.5</v>
       </c>
       <c r="D2" s="1">
-        <f t="shared" ref="D2:D21" si="0">C2*50+20</f>
+        <f t="shared" ref="D2:D22" si="0">C2*50+20</f>
         <v>45</v>
       </c>
       <c r="E2" s="2">
-        <f t="shared" ref="E2:E21" si="1">(B2+D2)*1.6/7.4-1.99</f>
+        <f t="shared" ref="E2:E22" si="1">(B2+D2)*1.6/7.4-1.99</f>
         <v>17.037027027027</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" ref="F2:F21" si="2">(B2+D2)*1.6/7.4</f>
+        <f t="shared" ref="F2:F22" si="2">(B2+D2)*1.6/7.4</f>
         <v>19.027027027027</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B3" s="1">
         <v>155</v>
@@ -2522,7 +2558,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B4" s="1">
         <v>165</v>
@@ -2546,7 +2582,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B5" s="1">
         <v>169</v>
@@ -2570,7 +2606,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B6" s="1">
         <v>90</v>
@@ -2594,7 +2630,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B7" s="1">
         <v>95</v>
@@ -2618,7 +2654,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B8" s="1">
         <v>99</v>
@@ -2642,7 +2678,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B9" s="1">
         <v>50</v>
@@ -2666,7 +2702,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B10" s="1">
         <v>35</v>
@@ -2690,7 +2726,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B11" s="1">
         <v>20</v>
@@ -2714,7 +2750,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B12" s="1">
         <v>35</v>
@@ -2738,7 +2774,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B13" s="1">
         <v>35</v>
@@ -2906,7 +2942,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B20" s="1">
         <v>12</v>
@@ -2930,7 +2966,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B21" s="1">
         <v>22</v>

--- a/常用关键词库.xlsx
+++ b/常用关键词库.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="8370"/>
+    <workbookView windowWidth="20400" windowHeight="8370" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="关键词" sheetId="1" r:id="rId1"/>
@@ -749,10 +749,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
@@ -893,7 +893,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -951,9 +951,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1373,8 +1370,8 @@
   <sheetPr/>
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:A46"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1752,7 +1749,7 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="20" t="s">
+      <c r="A44" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B44" t="s">
@@ -1760,13 +1757,13 @@
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="20"/>
+      <c r="A45" s="1"/>
       <c r="B45" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="20"/>
+      <c r="A46" s="1"/>
       <c r="B46" t="s">
         <v>83</v>
       </c>
@@ -1793,7 +1790,7 @@
   <sheetPr/>
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1987,8 +1984,8 @@
   <sheetPr/>
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2477,7 +2474,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="F23" sqref="F23:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3012,10 +3009,52 @@
       </c>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="10:10">
+    <row r="23" spans="1:10">
+      <c r="A23" s="1">
+        <v>4050</v>
+      </c>
+      <c r="B23" s="1">
+        <v>30</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D23" s="1">
+        <f>C23*50+20</f>
+        <v>30</v>
+      </c>
+      <c r="E23" s="2">
+        <f>(B23+D23)*1.6/7.4-1.99</f>
+        <v>10.982972972973</v>
+      </c>
+      <c r="F23" s="2">
+        <f>(B23+D23)*1.6/7.4</f>
+        <v>12.972972972973</v>
+      </c>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="10:10">
+    <row r="24" spans="1:10">
+      <c r="A24" s="1">
+        <v>6020</v>
+      </c>
+      <c r="B24" s="1">
+        <v>35</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D24" s="1">
+        <f>C24*50+20</f>
+        <v>30</v>
+      </c>
+      <c r="E24" s="2">
+        <f>(B24+D24)*1.6/7.4-1.99</f>
+        <v>12.0640540540541</v>
+      </c>
+      <c r="F24" s="2">
+        <f>(B24+D24)*1.6/7.4</f>
+        <v>14.0540540540541</v>
+      </c>
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="10:10">

--- a/常用关键词库.xlsx
+++ b/常用关键词库.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="8370" activeTab="2"/>
+    <workbookView windowWidth="28695" windowHeight="13200" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="关键词" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,11 @@
     <definedName name="recommended_browse_nodes_">'[1]Dropdown Lists'!$A$4</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
-  <extLst/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240">
   <si>
     <t>类型</t>
   </si>
@@ -553,6 +552,12 @@
   </si>
   <si>
     <t>Lila</t>
+  </si>
+  <si>
+    <t>酒红色</t>
+  </si>
+  <si>
+    <t>Burgunderrot</t>
   </si>
   <si>
     <t>名称</t>
@@ -749,26 +754,24 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="0"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -776,39 +779,185 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="0"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -833,8 +982,194 @@
         <bgColor indexed="2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -844,16 +1179,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -872,24 +1207,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -953,18 +1515,62 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
       <font>
         <name val="Calibri"/>
+        <scheme val="none"/>
         <family val="2"/>
         <b val="0"/>
         <i val="0"/>
@@ -972,7 +1578,7 @@
         <color indexed="8"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <fgColor indexed="10"/>
           <bgColor indexed="9"/>
         </patternFill>
@@ -993,6 +1599,12 @@
       </border>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1085,71 +1697,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1361,12 +1973,11 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C46"/>
   <sheetViews>
@@ -1786,7 +2397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C17"/>
   <sheetViews>
@@ -1980,12 +2591,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2193,9 +2804,13 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>175</v>
+      </c>
       <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1"/>
@@ -2238,7 +2853,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E15"/>
   <sheetViews>
@@ -2255,143 +2870,143 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" s="4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2399,61 +3014,61 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C12" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E12" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1"/>
       <c r="B13" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C13" t="s">
+        <v>213</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E13" t="s">
         <v>211</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E13" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1"/>
       <c r="B14" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C14" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E14" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1"/>
       <c r="B15" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C15" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E15" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -2469,12 +3084,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23:F24"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2488,27 +3103,27 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B2" s="1">
         <v>43</v>
@@ -2517,21 +3132,21 @@
         <v>0.5</v>
       </c>
       <c r="D2" s="1">
-        <f t="shared" ref="D2:D22" si="0">C2*50+20</f>
+        <f t="shared" ref="D2:D24" si="0">C2*50+20</f>
         <v>45</v>
       </c>
       <c r="E2" s="2">
-        <f t="shared" ref="E2:E22" si="1">(B2+D2)*1.6/7.4-1.99</f>
+        <f t="shared" ref="E2:E24" si="1">(B2+D2)*1.6/7.4-1.99</f>
         <v>17.037027027027</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" ref="F2:F22" si="2">(B2+D2)*1.6/7.4</f>
+        <f t="shared" ref="F2:F24" si="2">(B2+D2)*1.6/7.4</f>
         <v>19.027027027027</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B3" s="1">
         <v>155</v>
@@ -2540,22 +3155,22 @@
         <v>1.2</v>
       </c>
       <c r="D3" s="1">
-        <f>C3*50+20</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="E3" s="2">
-        <f>(B3+D3)*1.6/7.4-1.99</f>
+        <f t="shared" si="1"/>
         <v>48.8208108108108</v>
       </c>
       <c r="F3" s="2">
-        <f>(B3+D3)*1.6/7.4</f>
+        <f t="shared" si="2"/>
         <v>50.8108108108108</v>
       </c>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B4" s="1">
         <v>165</v>
@@ -2564,22 +3179,22 @@
         <v>1.4</v>
       </c>
       <c r="D4" s="1">
-        <f>C4*50+20</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="E4" s="2">
-        <f>(B4+D4)*1.6/7.4-1.99</f>
+        <f t="shared" si="1"/>
         <v>53.1451351351351</v>
       </c>
       <c r="F4" s="2">
-        <f>(B4+D4)*1.6/7.4</f>
+        <f t="shared" si="2"/>
         <v>55.1351351351351</v>
       </c>
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B5" s="1">
         <v>169</v>
@@ -2588,22 +3203,22 @@
         <v>1.5</v>
       </c>
       <c r="D5" s="1">
-        <f>C5*50+20</f>
+        <f t="shared" si="0"/>
         <v>95</v>
       </c>
       <c r="E5" s="2">
-        <f>(B5+D5)*1.6/7.4-1.99</f>
+        <f t="shared" si="1"/>
         <v>55.0910810810811</v>
       </c>
       <c r="F5" s="2">
-        <f>(B5+D5)*1.6/7.4</f>
+        <f t="shared" si="2"/>
         <v>57.0810810810811</v>
       </c>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B6" s="1">
         <v>90</v>
@@ -2612,22 +3227,22 @@
         <v>1.2</v>
       </c>
       <c r="D6" s="1">
-        <f>C6*50+20</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="E6" s="2">
-        <f>(B6+D6)*1.6/7.4-1.99</f>
+        <f t="shared" si="1"/>
         <v>34.7667567567568</v>
       </c>
       <c r="F6" s="2">
-        <f>(B6+D6)*1.6/7.4</f>
+        <f t="shared" si="2"/>
         <v>36.7567567567568</v>
       </c>
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B7" s="1">
         <v>95</v>
@@ -2636,22 +3251,22 @@
         <v>1.2</v>
       </c>
       <c r="D7" s="1">
-        <f>C7*50+20</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="E7" s="2">
-        <f>(B7+D7)*1.6/7.4-1.99</f>
+        <f t="shared" si="1"/>
         <v>35.8478378378378</v>
       </c>
       <c r="F7" s="2">
-        <f>(B7+D7)*1.6/7.4</f>
+        <f t="shared" si="2"/>
         <v>37.8378378378378</v>
       </c>
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B8" s="1">
         <v>99</v>
@@ -2660,22 +3275,22 @@
         <v>1.5</v>
       </c>
       <c r="D8" s="1">
-        <f>C8*50+20</f>
+        <f t="shared" si="0"/>
         <v>95</v>
       </c>
       <c r="E8" s="2">
-        <f>(B8+D8)*1.6/7.4-1.99</f>
+        <f t="shared" si="1"/>
         <v>39.9559459459459</v>
       </c>
       <c r="F8" s="2">
-        <f>(B8+D8)*1.6/7.4</f>
+        <f t="shared" si="2"/>
         <v>41.945945945946</v>
       </c>
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B9" s="1">
         <v>50</v>
@@ -2684,22 +3299,22 @@
         <v>0.5</v>
       </c>
       <c r="D9" s="1">
-        <f>C9*50+20</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="E9" s="2">
-        <f>(B9+D9)*1.6/7.4-1.99</f>
+        <f t="shared" si="1"/>
         <v>18.5505405405405</v>
       </c>
       <c r="F9" s="2">
-        <f>(B9+D9)*1.6/7.4</f>
+        <f t="shared" si="2"/>
         <v>20.5405405405405</v>
       </c>
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B10" s="1">
         <v>35</v>
@@ -2708,22 +3323,22 @@
         <v>0.2</v>
       </c>
       <c r="D10" s="1">
-        <f>C10*50+20</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="E10" s="2">
-        <f>(B10+D10)*1.6/7.4-1.99</f>
+        <f t="shared" si="1"/>
         <v>12.0640540540541</v>
       </c>
       <c r="F10" s="2">
-        <f>(B10+D10)*1.6/7.4</f>
+        <f t="shared" si="2"/>
         <v>14.0540540540541</v>
       </c>
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B11" s="1">
         <v>20</v>
@@ -2732,22 +3347,22 @@
         <v>0.2</v>
       </c>
       <c r="D11" s="1">
-        <f>C11*50+20</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="E11" s="2">
-        <f>(B11+D11)*1.6/7.4-1.99</f>
+        <f t="shared" si="1"/>
         <v>8.82081081081081</v>
       </c>
       <c r="F11" s="2">
-        <f>(B11+D11)*1.6/7.4</f>
+        <f t="shared" si="2"/>
         <v>10.8108108108108</v>
       </c>
       <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B12" s="1">
         <v>35</v>
@@ -2756,22 +3371,22 @@
         <v>0.2</v>
       </c>
       <c r="D12" s="1">
-        <f>C12*50+20</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="E12" s="2">
-        <f>(B12+D12)*1.6/7.4-1.99</f>
+        <f t="shared" si="1"/>
         <v>12.0640540540541</v>
       </c>
       <c r="F12" s="2">
-        <f>(B12+D12)*1.6/7.4</f>
+        <f t="shared" si="2"/>
         <v>14.0540540540541</v>
       </c>
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B13" s="1">
         <v>35</v>
@@ -2780,15 +3395,15 @@
         <v>0.3</v>
       </c>
       <c r="D13" s="1">
-        <f>C13*50+20</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="E13" s="2">
-        <f>(B13+D13)*1.6/7.4-1.99</f>
+        <f t="shared" si="1"/>
         <v>13.1451351351351</v>
       </c>
       <c r="F13" s="2">
-        <f>(B13+D13)*1.6/7.4</f>
+        <f t="shared" si="2"/>
         <v>15.1351351351351</v>
       </c>
       <c r="J13" s="3"/>
@@ -2804,15 +3419,15 @@
         <v>1.8</v>
       </c>
       <c r="D14" s="1">
-        <f>C14*50+20</f>
+        <f t="shared" si="0"/>
         <v>110</v>
       </c>
       <c r="E14" s="2">
-        <f>(B14+D14)*1.6/7.4-1.99</f>
+        <f t="shared" si="1"/>
         <v>40.1721621621622</v>
       </c>
       <c r="F14" s="2">
-        <f>(B14+D14)*1.6/7.4</f>
+        <f t="shared" si="2"/>
         <v>42.1621621621622</v>
       </c>
       <c r="J14" s="3"/>
@@ -2828,15 +3443,15 @@
         <v>2.2</v>
       </c>
       <c r="D15" s="1">
-        <f>C15*50+20</f>
+        <f t="shared" si="0"/>
         <v>130</v>
       </c>
       <c r="E15" s="2">
-        <f>(B15+D15)*1.6/7.4-1.99</f>
+        <f t="shared" si="1"/>
         <v>46.6586486486486</v>
       </c>
       <c r="F15" s="2">
-        <f>(B15+D15)*1.6/7.4</f>
+        <f t="shared" si="2"/>
         <v>48.6486486486486</v>
       </c>
       <c r="J15" s="3"/>
@@ -2852,15 +3467,15 @@
         <v>2.3</v>
       </c>
       <c r="D16" s="1">
-        <f>C16*50+20</f>
+        <f t="shared" si="0"/>
         <v>135</v>
       </c>
       <c r="E16" s="2">
-        <f>(B16+D16)*1.6/7.4-1.99</f>
+        <f t="shared" si="1"/>
         <v>49.9018918918919</v>
       </c>
       <c r="F16" s="2">
-        <f>(B16+D16)*1.6/7.4</f>
+        <f t="shared" si="2"/>
         <v>51.8918918918919</v>
       </c>
       <c r="J16" s="3"/>
@@ -2876,15 +3491,15 @@
         <v>1.5</v>
       </c>
       <c r="D17" s="1">
-        <f>C17*50+20</f>
+        <f t="shared" si="0"/>
         <v>95</v>
       </c>
       <c r="E17" s="2">
-        <f>(B17+D17)*1.6/7.4-1.99</f>
+        <f t="shared" si="1"/>
         <v>43.6316216216216</v>
       </c>
       <c r="F17" s="2">
-        <f>(B17+D17)*1.6/7.4</f>
+        <f t="shared" si="2"/>
         <v>45.6216216216216</v>
       </c>
       <c r="J17" s="3"/>
@@ -2900,15 +3515,15 @@
         <v>2</v>
       </c>
       <c r="D18" s="1">
-        <f>C18*50+20</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="E18" s="2">
-        <f>(B18+D18)*1.6/7.4-1.99</f>
+        <f t="shared" si="1"/>
         <v>56.8208108108108</v>
       </c>
       <c r="F18" s="2">
-        <f>(B18+D18)*1.6/7.4</f>
+        <f t="shared" si="2"/>
         <v>58.8108108108108</v>
       </c>
       <c r="J18" s="3"/>
@@ -2924,22 +3539,22 @@
         <v>2.1</v>
       </c>
       <c r="D19" s="1">
-        <f>C19*50+20</f>
+        <f t="shared" si="0"/>
         <v>125</v>
       </c>
       <c r="E19" s="2">
-        <f>(B19+D19)*1.6/7.4-1.99</f>
+        <f t="shared" si="1"/>
         <v>63.7397297297297</v>
       </c>
       <c r="F19" s="2">
-        <f>(B19+D19)*1.6/7.4</f>
+        <f t="shared" si="2"/>
         <v>65.7297297297297</v>
       </c>
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B20" s="1">
         <v>12</v>
@@ -2948,22 +3563,22 @@
         <v>0.1</v>
       </c>
       <c r="D20" s="1">
-        <f>C20*50+20</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="E20" s="2">
-        <f>(B20+D20)*1.6/7.4-1.99</f>
+        <f t="shared" si="1"/>
         <v>6.01</v>
       </c>
       <c r="F20" s="2">
-        <f>(B20+D20)*1.6/7.4</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B21" s="1">
         <v>22</v>
@@ -2972,15 +3587,15 @@
         <v>0.2</v>
       </c>
       <c r="D21" s="1">
-        <f>C21*50+20</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="E21" s="2">
-        <f>(B21+D21)*1.6/7.4-1.99</f>
+        <f t="shared" si="1"/>
         <v>9.25324324324324</v>
       </c>
       <c r="F21" s="2">
-        <f>(B21+D21)*1.6/7.4</f>
+        <f t="shared" si="2"/>
         <v>11.2432432432432</v>
       </c>
       <c r="J21" s="3"/>
@@ -2996,15 +3611,15 @@
         <v>0.2</v>
       </c>
       <c r="D22" s="1">
-        <f>C22*50+20</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="E22" s="2">
-        <f>(B22+D22)*1.6/7.4-1.99</f>
+        <f t="shared" si="1"/>
         <v>11.4154054054054</v>
       </c>
       <c r="F22" s="2">
-        <f>(B22+D22)*1.6/7.4</f>
+        <f t="shared" si="2"/>
         <v>13.4054054054054</v>
       </c>
       <c r="J22" s="3"/>
@@ -3020,15 +3635,15 @@
         <v>0.2</v>
       </c>
       <c r="D23" s="1">
-        <f>C23*50+20</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="E23" s="2">
-        <f>(B23+D23)*1.6/7.4-1.99</f>
+        <f t="shared" si="1"/>
         <v>10.982972972973</v>
       </c>
       <c r="F23" s="2">
-        <f>(B23+D23)*1.6/7.4</f>
+        <f t="shared" si="2"/>
         <v>12.972972972973</v>
       </c>
       <c r="J23" s="3"/>
@@ -3044,20 +3659,41 @@
         <v>0.2</v>
       </c>
       <c r="D24" s="1">
-        <f>C24*50+20</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="E24" s="2">
-        <f>(B24+D24)*1.6/7.4-1.99</f>
+        <f t="shared" si="1"/>
         <v>12.0640540540541</v>
       </c>
       <c r="F24" s="2">
-        <f>(B24+D24)*1.6/7.4</f>
+        <f t="shared" si="2"/>
         <v>14.0540540540541</v>
       </c>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="10:10">
+    <row r="25" spans="1:10">
+      <c r="A25" s="1">
+        <v>1059</v>
+      </c>
+      <c r="B25" s="1">
+        <v>35</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D25" s="1">
+        <f>C25*50+20</f>
+        <v>30</v>
+      </c>
+      <c r="E25" s="2">
+        <f>(B25+D25)*1.6/7.4-1.99</f>
+        <v>12.0640540540541</v>
+      </c>
+      <c r="F25" s="2">
+        <f>(B25+D25)*1.6/7.4</f>
+        <v>14.0540540540541</v>
+      </c>
       <c r="J25" s="3"/>
     </row>
     <row r="26" spans="10:10">
@@ -3074,7 +3710,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>

--- a/常用关键词库.xlsx
+++ b/常用关键词库.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13200" activeTab="2"/>
+    <workbookView windowWidth="20400" windowHeight="8370" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="关键词" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="颜色" sheetId="3" r:id="rId3"/>
     <sheet name="尺码换算" sheetId="4" r:id="rId4"/>
     <sheet name="价格计算" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
+    <sheet name="关键词优化" sheetId="6" r:id="rId6"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId7"/>
@@ -22,11 +22,43 @@
     <definedName name="recommended_browse_nodes_">'[1]Dropdown Lists'!$A$4</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">优质五点描述参考1：
+Klassische Designs bietet eine qualitativ hochwertige Designermode zu großen Werte. Großes Geschenk für Liebhaber Familie.
+Lustig zeigt, lässige Kapuzenpullover für Sie. Perfekt für Partys, Abschlussball, Feste, Geschenke und vieles mehr!
+Langarm
+92% Polyester, 8% Elasthan
+Kapuzen
+Pflegehinweis: Maschinen- und Handwäsche
+Größe S / M: Länge: 69cm Oberweite: 47-57CM Brustumfang: 112-132CM Taille: 108-128CM Hüftumfang: 98-118CM Ärmellänge: 63cm Ausschnitt: 29CM
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294">
   <si>
     <t>类型</t>
   </si>
@@ -278,6 +310,9 @@
   </si>
   <si>
     <t>weihnachts damen kleidung</t>
+  </si>
+  <si>
+    <t>3D印花连帽卫衣</t>
   </si>
   <si>
     <t>描述</t>
@@ -747,6 +782,165 @@
   </si>
   <si>
     <t>米多运动裤</t>
+  </si>
+  <si>
+    <t>品名</t>
+  </si>
+  <si>
+    <t>调整价格</t>
+  </si>
+  <si>
+    <t>核心关键词</t>
+  </si>
+  <si>
+    <t>宽泛关键词1</t>
+  </si>
+  <si>
+    <t>宽泛关键词2</t>
+  </si>
+  <si>
+    <t>宽泛关键词3</t>
+  </si>
+  <si>
+    <t>宽泛关键词4</t>
+  </si>
+  <si>
+    <t>宽泛关键词5</t>
+  </si>
+  <si>
+    <t>宽泛关键词6</t>
+  </si>
+  <si>
+    <t>宽泛关键词7</t>
+  </si>
+  <si>
+    <t>宽泛关键词8</t>
+  </si>
+  <si>
+    <t>宽泛关键词9</t>
+  </si>
+  <si>
+    <t>定语1</t>
+  </si>
+  <si>
+    <t>定语2</t>
+  </si>
+  <si>
+    <t>定语3</t>
+  </si>
+  <si>
+    <t>定语4</t>
+  </si>
+  <si>
+    <t>定语5</t>
+  </si>
+  <si>
+    <t>定语6</t>
+  </si>
+  <si>
+    <t>定语7</t>
+  </si>
+  <si>
+    <t>定语8</t>
+  </si>
+  <si>
+    <t>定语9</t>
+  </si>
+  <si>
+    <t>Hoodie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweatshirt </t>
+  </si>
+  <si>
+    <t>Pullover</t>
+  </si>
+  <si>
+    <t>Kappuzenpullover</t>
+  </si>
+  <si>
+    <t>Kapuzenjacke</t>
+  </si>
+  <si>
+    <t>Pulli</t>
+  </si>
+  <si>
+    <t>Stoff</t>
+  </si>
+  <si>
+    <t>Sweater</t>
+  </si>
+  <si>
+    <t>Sweatshirt</t>
+  </si>
+  <si>
+    <t>Die Klamotte</t>
+  </si>
+  <si>
+    <t>3D Digital Print</t>
+  </si>
+  <si>
+    <t>Unisex 3D Druck</t>
+  </si>
+  <si>
+    <t>Langarm</t>
+  </si>
+  <si>
+    <t>Grandiose Farben</t>
+  </si>
+  <si>
+    <t>Unisex Mode</t>
+  </si>
+  <si>
+    <t>Liebhaber Design</t>
+  </si>
+  <si>
+    <t>mit Reißverschluss</t>
+  </si>
+  <si>
+    <t>Unisex Slim Fit</t>
+  </si>
+  <si>
+    <t>Galaxy Print</t>
+  </si>
+  <si>
+    <t>套衫</t>
+  </si>
+  <si>
+    <t>织物</t>
+  </si>
+  <si>
+    <t>毛衣</t>
+  </si>
+  <si>
+    <t>衣服</t>
+  </si>
+  <si>
+    <t>3D数字印花</t>
+  </si>
+  <si>
+    <t>中性3D打印</t>
+  </si>
+  <si>
+    <t>长袖</t>
+  </si>
+  <si>
+    <t>宏伟的颜色</t>
+  </si>
+  <si>
+    <t>中性时尚</t>
+  </si>
+  <si>
+    <t>情侣设计</t>
+  </si>
+  <si>
+    <t>带拉链</t>
+  </si>
+  <si>
+    <t>中性修身</t>
+  </si>
+  <si>
+    <t>银河打印</t>
   </si>
 </sst>
 </file>
@@ -754,14 +948,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -783,12 +977,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="0"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -800,169 +988,149 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color indexed="20"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color indexed="23"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
-      <color theme="3"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -984,187 +1152,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor indexed="44"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor indexed="46"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor indexed="29"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor indexed="25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor indexed="49"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1179,16 +1251,16 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1209,57 +1281,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="23"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color indexed="63"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color indexed="63"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color indexed="63"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1268,22 +1314,7 @@
       <right/>
       <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1292,7 +1323,33 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1301,7 +1358,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1310,154 +1382,166 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1474,41 +1558,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1517,60 +1598,59 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="强调文字颜色 4" xfId="3"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="百分比" xfId="5" builtinId="5"/>
+    <cellStyle name="标题" xfId="6"/>
+    <cellStyle name="货币[0]" xfId="7" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="8"/>
+    <cellStyle name="输入" xfId="9"/>
+    <cellStyle name="差" xfId="10"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="12"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
+    <cellStyle name="注释" xfId="15"/>
+    <cellStyle name="警告文本" xfId="16"/>
+    <cellStyle name="标题 4" xfId="17"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="18"/>
+    <cellStyle name="解释性文本" xfId="19"/>
+    <cellStyle name="标题 1" xfId="20"/>
+    <cellStyle name="标题 2" xfId="21"/>
+    <cellStyle name="标题 3" xfId="22"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="23"/>
+    <cellStyle name="输出" xfId="24"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="25"/>
+    <cellStyle name="计算" xfId="26"/>
+    <cellStyle name="检查单元格" xfId="27"/>
+    <cellStyle name="链接单元格" xfId="28"/>
+    <cellStyle name="强调文字颜色 2" xfId="29"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="30"/>
+    <cellStyle name="汇总" xfId="31"/>
+    <cellStyle name="好" xfId="32"/>
+    <cellStyle name="适中" xfId="33"/>
+    <cellStyle name="强调文字颜色 1" xfId="34"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="35"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="36"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="37"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="38"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="39"/>
+    <cellStyle name="强调文字颜色 3" xfId="40"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42"/>
+    <cellStyle name="强调文字颜色 5" xfId="43"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45"/>
+    <cellStyle name="强调文字颜色 6" xfId="46"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
       <font>
         <name val="Calibri"/>
-        <scheme val="none"/>
         <family val="2"/>
         <b val="0"/>
         <i val="0"/>
@@ -1578,7 +1658,7 @@
         <color indexed="8"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill>
           <fgColor indexed="10"/>
           <bgColor indexed="9"/>
         </patternFill>
@@ -1599,12 +1679,6 @@
       </border>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1697,71 +1771,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1973,161 +2047,162 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="1" max="1" width="15.875" customWidth="1"/>
     <col min="2" max="2" width="52.5" customWidth="1"/>
     <col min="3" max="3" width="27.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="21" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18" t="s">
+      <c r="A3" s="20"/>
+      <c r="B3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="21" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18" t="s">
+      <c r="A4" s="20"/>
+      <c r="B4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18" t="s">
+      <c r="A6" s="20"/>
+      <c r="B6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="21" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="21" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18" t="s">
+      <c r="A8" s="20"/>
+      <c r="B8" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="21" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18" t="s">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="21" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="21" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="18" t="s">
+      <c r="A13" s="5"/>
+      <c r="B13" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="21" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="18" t="s">
+      <c r="A14" s="5"/>
+      <c r="B14" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="21" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1"/>
+      <c r="A15" s="5"/>
       <c r="B15" t="s">
         <v>30</v>
       </c>
@@ -2136,8 +2211,8 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="18" t="s">
+      <c r="A16" s="5"/>
+      <c r="B16" s="21" t="s">
         <v>32</v>
       </c>
       <c r="C16" t="s">
@@ -2145,7 +2220,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B17" t="s">
@@ -2156,7 +2231,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1"/>
+      <c r="A18" s="5"/>
       <c r="B18" t="s">
         <v>37</v>
       </c>
@@ -2165,7 +2240,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1"/>
+      <c r="A19" s="5"/>
       <c r="B19" t="s">
         <v>39</v>
       </c>
@@ -2174,7 +2249,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1"/>
+      <c r="A20" s="5"/>
       <c r="B20" t="s">
         <v>41</v>
       </c>
@@ -2183,7 +2258,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1"/>
+      <c r="A21" s="5"/>
       <c r="B21" t="s">
         <v>43</v>
       </c>
@@ -2192,7 +2267,7 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1"/>
+      <c r="A22" s="5"/>
       <c r="B22" t="s">
         <v>45</v>
       </c>
@@ -2201,7 +2276,7 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B23" t="s">
@@ -2212,7 +2287,7 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1"/>
+      <c r="A24" s="5"/>
       <c r="B24" t="s">
         <v>50</v>
       </c>
@@ -2221,7 +2296,7 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1"/>
+      <c r="A25" s="5"/>
       <c r="B25" t="s">
         <v>52</v>
       </c>
@@ -2230,7 +2305,7 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1"/>
+      <c r="A26" s="5"/>
       <c r="B26" t="s">
         <v>54</v>
       </c>
@@ -2239,7 +2314,7 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1"/>
+      <c r="A27" s="5"/>
       <c r="B27" t="s">
         <v>56</v>
       </c>
@@ -2248,22 +2323,22 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="1"/>
+      <c r="A28" s="5"/>
       <c r="B28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="29" ht="40.5" spans="1:3">
-      <c r="A29" s="1"/>
+      <c r="A29" s="5"/>
       <c r="B29" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="22" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1"/>
+      <c r="A30" s="5"/>
       <c r="B30" t="s">
         <v>61</v>
       </c>
@@ -2280,7 +2355,7 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="5" t="s">
         <v>65</v>
       </c>
       <c r="B32" t="s">
@@ -2288,25 +2363,25 @@
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="1"/>
+      <c r="A33" s="5"/>
       <c r="B33" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="1"/>
+      <c r="A34" s="5"/>
       <c r="B34" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="1"/>
+      <c r="A35" s="5"/>
       <c r="B35" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="1"/>
+      <c r="A36" s="5"/>
       <c r="B36" t="s">
         <v>70</v>
       </c>
@@ -2320,7 +2395,7 @@
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="5" t="s">
         <v>73</v>
       </c>
       <c r="B38" t="s">
@@ -2328,25 +2403,25 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="1"/>
+      <c r="A39" s="5"/>
       <c r="B39" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="1"/>
+      <c r="A40" s="5"/>
       <c r="B40" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="1"/>
+      <c r="A41" s="5"/>
       <c r="B41" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="1"/>
+      <c r="A42" s="5"/>
       <c r="B42" t="s">
         <v>78</v>
       </c>
@@ -2360,7 +2435,7 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="5" t="s">
         <v>80</v>
       </c>
       <c r="B44" t="s">
@@ -2368,15 +2443,20 @@
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="1"/>
+      <c r="A45" s="5"/>
       <c r="B45" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="1"/>
+      <c r="A46" s="5"/>
       <c r="B46" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2397,7 +2477,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:C17"/>
   <sheetViews>
@@ -2413,168 +2493,168 @@
   </cols>
   <sheetData>
     <row r="1" ht="24.75" customHeight="1" spans="1:3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="15" t="s">
+      <c r="B1" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>85</v>
+      <c r="A2" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1"/>
+      <c r="A3" s="5"/>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1"/>
+      <c r="A4" s="5"/>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1"/>
+      <c r="A5" s="5"/>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1"/>
+      <c r="A6" s="5"/>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>96</v>
+      <c r="A7" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
+      <c r="A8" s="5"/>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1"/>
+      <c r="A9" s="5"/>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1"/>
+      <c r="A10" s="5"/>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1"/>
+      <c r="A13" s="5"/>
       <c r="B13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1"/>
+      <c r="A14" s="5"/>
       <c r="B14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
-        <v>114</v>
+      <c r="A15" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="B15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1"/>
+      <c r="A16" s="5"/>
       <c r="B16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1"/>
+      <c r="A17" s="5"/>
       <c r="B17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2591,11 +2671,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -2606,236 +2686,236 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:3">
-      <c r="A1" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="9" t="s">
         <v>123</v>
       </c>
+      <c r="C1" s="9" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="2" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A2" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="10" t="s">
         <v>126</v>
       </c>
+      <c r="C2" s="11" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="3" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A3" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="10" t="s">
         <v>129</v>
       </c>
+      <c r="C3" s="12" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="4" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A4" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>132</v>
       </c>
+      <c r="C4" s="13" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="5" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A5" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>135</v>
       </c>
+      <c r="C5" s="13" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="6" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A6" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>138</v>
       </c>
+      <c r="C6" s="13" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="7" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A7" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="B7" s="10" t="s">
         <v>141</v>
       </c>
+      <c r="C7" s="14" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A8" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="10" t="s">
         <v>144</v>
       </c>
+      <c r="C8" s="11" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="9" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A9" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>147</v>
       </c>
+      <c r="C9" s="13" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="10" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A10" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>150</v>
       </c>
+      <c r="C10" s="13" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="11" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A11" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="10" t="s">
         <v>153</v>
       </c>
+      <c r="C11" s="11" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A12" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="B12" s="10" t="s">
         <v>156</v>
       </c>
+      <c r="C12" s="11" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A13" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="B13" s="12" t="s">
+      <c r="A13" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="B13" s="15" t="s">
         <v>159</v>
       </c>
+      <c r="C13" s="16" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="14" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A14" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="B14" s="12" t="s">
+      <c r="A14" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="B14" s="15" t="s">
         <v>162</v>
       </c>
+      <c r="C14" s="16" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="10" t="s">
         <v>165</v>
       </c>
+      <c r="C15" s="10" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="B16" s="6" t="s">
+      <c r="A16" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="B16" s="10" t="s">
         <v>168</v>
       </c>
+      <c r="C16" s="10" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="17" ht="15" spans="1:3">
-      <c r="A17" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="A17" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="B17" s="5" t="s">
         <v>171</v>
       </c>
+      <c r="C17" s="17" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="18" ht="15" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="A18" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="B18" s="5" t="s">
         <v>174</v>
       </c>
+      <c r="C18" s="17" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1" t="s">
+      <c r="A19" s="5" t="s">
         <v>176</v>
       </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C8:C10 C3">
@@ -2853,7 +2933,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E15"/>
   <sheetViews>
@@ -2869,206 +2949,206 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>180</v>
       </c>
+      <c r="D1" s="5" t="s">
+        <v>181</v>
+      </c>
       <c r="E1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="8" t="s">
         <v>185</v>
       </c>
+      <c r="D2" s="5" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="8" t="s">
         <v>188</v>
       </c>
+      <c r="D3" s="5" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="5"/>
+      <c r="B5" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="5"/>
+      <c r="B6" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="5"/>
+      <c r="B7" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1"/>
-      <c r="B5" s="4" t="s">
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="5"/>
+      <c r="B9" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1"/>
-      <c r="B6" s="4" t="s">
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="5"/>
+      <c r="B10" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1"/>
-      <c r="B7" s="4" t="s">
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="5"/>
+      <c r="B11" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1"/>
-      <c r="B9" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1"/>
-      <c r="B10" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1"/>
-      <c r="B11" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>197</v>
-      </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C12" t="s">
-        <v>210</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>188</v>
+        <v>211</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>189</v>
       </c>
       <c r="E12" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="1"/>
+      <c r="A13" s="5"/>
       <c r="B13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C13" t="s">
+        <v>214</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E13" t="s">
         <v>212</v>
       </c>
-      <c r="C13" t="s">
-        <v>213</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E13" t="s">
-        <v>211</v>
-      </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="1"/>
+      <c r="A14" s="5"/>
       <c r="B14" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C14" t="s">
-        <v>215</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>194</v>
+        <v>216</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>195</v>
       </c>
       <c r="E14" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="1"/>
+      <c r="A15" s="5"/>
       <c r="B15" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C15" t="s">
-        <v>218</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>197</v>
+        <v>219</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>198</v>
       </c>
       <c r="E15" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -3084,623 +3164,623 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="10.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="2"/>
+    <col min="1" max="1" width="11" style="5" customWidth="1"/>
+    <col min="2" max="4" width="9" style="5"/>
+    <col min="5" max="5" width="10.875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="6"/>
     <col min="10" max="10" width="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B2" s="5">
+        <v>43</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="5">
+        <f t="shared" ref="D2:D25" si="0">C2*50+20</f>
+        <v>45</v>
+      </c>
+      <c r="E2" s="6">
+        <f t="shared" ref="E2:E25" si="1">(B2+D2)*1.6/7.4-1.99</f>
+        <v>17.037027027027</v>
+      </c>
+      <c r="F2" s="6">
+        <f t="shared" ref="F2:F25" si="2">(B2+D2)*1.6/7.4</f>
+        <v>19.027027027027</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B3" s="5">
+        <v>155</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="D3" s="5">
+        <f>C3*50+20</f>
+        <v>80</v>
+      </c>
+      <c r="E3" s="6">
+        <f>(B3+D3)*1.6/7.4-1.99</f>
+        <v>48.8208108108108</v>
+      </c>
+      <c r="F3" s="6">
+        <f>(B3+D3)*1.6/7.4</f>
+        <v>50.8108108108108</v>
+      </c>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B4" s="5">
+        <v>165</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1.4</v>
+      </c>
+      <c r="D4" s="5">
+        <f>C4*50+20</f>
+        <v>90</v>
+      </c>
+      <c r="E4" s="6">
+        <f>(B4+D4)*1.6/7.4-1.99</f>
+        <v>53.1451351351351</v>
+      </c>
+      <c r="F4" s="6">
+        <f>(B4+D4)*1.6/7.4</f>
+        <v>55.1351351351351</v>
+      </c>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B5" s="5">
+        <v>169</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="D5" s="5">
+        <f>C5*50+20</f>
+        <v>95</v>
+      </c>
+      <c r="E5" s="6">
+        <f>(B5+D5)*1.6/7.4-1.99</f>
+        <v>55.0910810810811</v>
+      </c>
+      <c r="F5" s="6">
+        <f>(B5+D5)*1.6/7.4</f>
+        <v>57.0810810810811</v>
+      </c>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B6" s="5">
+        <v>90</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="D6" s="5">
+        <f>C6*50+20</f>
+        <v>80</v>
+      </c>
+      <c r="E6" s="6">
+        <f>(B6+D6)*1.6/7.4-1.99</f>
+        <v>34.7667567567568</v>
+      </c>
+      <c r="F6" s="6">
+        <f>(B6+D6)*1.6/7.4</f>
+        <v>36.7567567567568</v>
+      </c>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B7" s="5">
+        <v>95</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="D7" s="5">
+        <f>C7*50+20</f>
+        <v>80</v>
+      </c>
+      <c r="E7" s="6">
+        <f>(B7+D7)*1.6/7.4-1.99</f>
+        <v>35.8478378378378</v>
+      </c>
+      <c r="F7" s="6">
+        <f>(B7+D7)*1.6/7.4</f>
+        <v>37.8378378378378</v>
+      </c>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B8" s="5">
+        <v>99</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="D8" s="5">
+        <f>C8*50+20</f>
+        <v>95</v>
+      </c>
+      <c r="E8" s="6">
+        <f>(B8+D8)*1.6/7.4-1.99</f>
+        <v>39.9559459459459</v>
+      </c>
+      <c r="F8" s="6">
+        <f>(B8+D8)*1.6/7.4</f>
+        <v>41.945945945946</v>
+      </c>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B9" s="5">
+        <v>50</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="5">
+        <f>C9*50+20</f>
+        <v>45</v>
+      </c>
+      <c r="E9" s="6">
+        <f>(B9+D9)*1.6/7.4-1.99</f>
+        <v>18.5505405405405</v>
+      </c>
+      <c r="F9" s="6">
+        <f>(B9+D9)*1.6/7.4</f>
+        <v>20.5405405405405</v>
+      </c>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B10" s="5">
+        <v>35</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="D10" s="5">
+        <f>C10*50+20</f>
+        <v>30</v>
+      </c>
+      <c r="E10" s="6">
+        <f>(B10+D10)*1.6/7.4-1.99</f>
+        <v>12.0640540540541</v>
+      </c>
+      <c r="F10" s="6">
+        <f>(B10+D10)*1.6/7.4</f>
+        <v>14.0540540540541</v>
+      </c>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B11" s="5">
+        <v>20</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="D11" s="5">
+        <f>C11*50+20</f>
+        <v>30</v>
+      </c>
+      <c r="E11" s="6">
+        <f>(B11+D11)*1.6/7.4-1.99</f>
+        <v>8.82081081081081</v>
+      </c>
+      <c r="F11" s="6">
+        <f>(B11+D11)*1.6/7.4</f>
+        <v>10.8108108108108</v>
+      </c>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B12" s="5">
+        <v>35</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="D12" s="5">
+        <f>C12*50+20</f>
+        <v>30</v>
+      </c>
+      <c r="E12" s="6">
+        <f>(B12+D12)*1.6/7.4-1.99</f>
+        <v>12.0640540540541</v>
+      </c>
+      <c r="F12" s="6">
+        <f>(B12+D12)*1.6/7.4</f>
+        <v>14.0540540540541</v>
+      </c>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B13" s="5">
+        <v>35</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="D13" s="5">
+        <f>C13*50+20</f>
+        <v>35</v>
+      </c>
+      <c r="E13" s="6">
+        <f>(B13+D13)*1.6/7.4-1.99</f>
+        <v>13.1451351351351</v>
+      </c>
+      <c r="F13" s="6">
+        <f>(B13+D13)*1.6/7.4</f>
+        <v>15.1351351351351</v>
+      </c>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="5">
+        <v>160</v>
+      </c>
+      <c r="B14" s="5">
+        <v>85</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="D14" s="5">
+        <f>C14*50+20</f>
+        <v>110</v>
+      </c>
+      <c r="E14" s="6">
+        <f>(B14+D14)*1.6/7.4-1.99</f>
+        <v>40.1721621621622</v>
+      </c>
+      <c r="F14" s="6">
+        <f>(B14+D14)*1.6/7.4</f>
+        <v>42.1621621621622</v>
+      </c>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="5">
+        <v>200</v>
+      </c>
+      <c r="B15" s="5">
+        <v>95</v>
+      </c>
+      <c r="C15" s="5">
+        <v>2.2</v>
+      </c>
+      <c r="D15" s="5">
+        <f>C15*50+20</f>
+        <v>130</v>
+      </c>
+      <c r="E15" s="6">
+        <f>(B15+D15)*1.6/7.4-1.99</f>
+        <v>46.6586486486486</v>
+      </c>
+      <c r="F15" s="6">
+        <f>(B15+D15)*1.6/7.4</f>
+        <v>48.6486486486486</v>
+      </c>
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="5">
         <v>220</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B2" s="1">
-        <v>43</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D2" s="1">
-        <f t="shared" ref="D2:D24" si="0">C2*50+20</f>
-        <v>45</v>
-      </c>
-      <c r="E2" s="2">
-        <f t="shared" ref="E2:E24" si="1">(B2+D2)*1.6/7.4-1.99</f>
-        <v>17.037027027027</v>
-      </c>
-      <c r="F2" s="2">
-        <f t="shared" ref="F2:F24" si="2">(B2+D2)*1.6/7.4</f>
-        <v>19.027027027027</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B3" s="1">
-        <v>155</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="D3" s="1">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="E3" s="2">
-        <f t="shared" si="1"/>
-        <v>48.8208108108108</v>
-      </c>
-      <c r="F3" s="2">
-        <f t="shared" si="2"/>
-        <v>50.8108108108108</v>
-      </c>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B4" s="1">
-        <v>165</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="D4" s="1">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="E4" s="2">
-        <f t="shared" si="1"/>
-        <v>53.1451351351351</v>
-      </c>
-      <c r="F4" s="2">
-        <f t="shared" si="2"/>
-        <v>55.1351351351351</v>
-      </c>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B5" s="1">
-        <v>169</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B16" s="5">
+        <v>105</v>
+      </c>
+      <c r="C16" s="5">
+        <v>2.3</v>
+      </c>
+      <c r="D16" s="5">
+        <f>C16*50+20</f>
+        <v>135</v>
+      </c>
+      <c r="E16" s="6">
+        <f>(B16+D16)*1.6/7.4-1.99</f>
+        <v>49.9018918918919</v>
+      </c>
+      <c r="F16" s="6">
+        <f>(B16+D16)*1.6/7.4</f>
+        <v>51.8918918918919</v>
+      </c>
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="5">
+        <v>160</v>
+      </c>
+      <c r="B17" s="5">
+        <v>116</v>
+      </c>
+      <c r="C17" s="5">
         <v>1.5</v>
       </c>
-      <c r="D5" s="1">
-        <f t="shared" si="0"/>
+      <c r="D17" s="5">
+        <f>C17*50+20</f>
         <v>95</v>
       </c>
-      <c r="E5" s="2">
-        <f t="shared" si="1"/>
-        <v>55.0910810810811</v>
-      </c>
-      <c r="F5" s="2">
-        <f t="shared" si="2"/>
-        <v>57.0810810810811</v>
-      </c>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B6" s="1">
-        <v>90</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="E6" s="2">
-        <f t="shared" si="1"/>
-        <v>34.7667567567568</v>
-      </c>
-      <c r="F6" s="2">
-        <f t="shared" si="2"/>
-        <v>36.7567567567568</v>
-      </c>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B7" s="1">
-        <v>95</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="E7" s="2">
-        <f t="shared" si="1"/>
-        <v>35.8478378378378</v>
-      </c>
-      <c r="F7" s="2">
-        <f t="shared" si="2"/>
-        <v>37.8378378378378</v>
-      </c>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B8" s="1">
-        <v>99</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="D8" s="1">
-        <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-      <c r="E8" s="2">
-        <f t="shared" si="1"/>
-        <v>39.9559459459459</v>
-      </c>
-      <c r="F8" s="2">
-        <f t="shared" si="2"/>
-        <v>41.945945945946</v>
-      </c>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B9" s="1">
-        <v>50</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D9" s="1">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="E9" s="2">
-        <f t="shared" si="1"/>
-        <v>18.5505405405405</v>
-      </c>
-      <c r="F9" s="2">
-        <f t="shared" si="2"/>
-        <v>20.5405405405405</v>
-      </c>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B10" s="1">
+      <c r="E17" s="6">
+        <f>(B17+D17)*1.6/7.4-1.99</f>
+        <v>43.6316216216216</v>
+      </c>
+      <c r="F17" s="6">
+        <f>(B17+D17)*1.6/7.4</f>
+        <v>45.6216216216216</v>
+      </c>
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="5">
+        <v>200</v>
+      </c>
+      <c r="B18" s="5">
+        <v>152</v>
+      </c>
+      <c r="C18" s="5">
+        <v>2</v>
+      </c>
+      <c r="D18" s="5">
+        <f>C18*50+20</f>
+        <v>120</v>
+      </c>
+      <c r="E18" s="6">
+        <f>(B18+D18)*1.6/7.4-1.99</f>
+        <v>56.8208108108108</v>
+      </c>
+      <c r="F18" s="6">
+        <f>(B18+D18)*1.6/7.4</f>
+        <v>58.8108108108108</v>
+      </c>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="5">
+        <v>220</v>
+      </c>
+      <c r="B19" s="5">
+        <v>179</v>
+      </c>
+      <c r="C19" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="D19" s="5">
+        <f>C19*50+20</f>
+        <v>125</v>
+      </c>
+      <c r="E19" s="6">
+        <f>(B19+D19)*1.6/7.4-1.99</f>
+        <v>63.7397297297297</v>
+      </c>
+      <c r="F19" s="6">
+        <f>(B19+D19)*1.6/7.4</f>
+        <v>65.7297297297297</v>
+      </c>
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B20" s="5">
+        <v>12</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="D20" s="5">
+        <f>C20*50+20</f>
+        <v>25</v>
+      </c>
+      <c r="E20" s="6">
+        <f>(B20+D20)*1.6/7.4-1.99</f>
+        <v>6.01</v>
+      </c>
+      <c r="F20" s="6">
+        <f>(B20+D20)*1.6/7.4</f>
+        <v>8</v>
+      </c>
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B21" s="5">
+        <v>22</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="D21" s="5">
+        <f>C21*50+20</f>
+        <v>30</v>
+      </c>
+      <c r="E21" s="6">
+        <f>(B21+D21)*1.6/7.4-1.99</f>
+        <v>9.25324324324324</v>
+      </c>
+      <c r="F21" s="6">
+        <f>(B21+D21)*1.6/7.4</f>
+        <v>11.2432432432432</v>
+      </c>
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="5">
+        <v>1022</v>
+      </c>
+      <c r="B22" s="5">
+        <v>32</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="D22" s="5">
+        <f>C22*50+20</f>
+        <v>30</v>
+      </c>
+      <c r="E22" s="6">
+        <f>(B22+D22)*1.6/7.4-1.99</f>
+        <v>11.4154054054054</v>
+      </c>
+      <c r="F22" s="6">
+        <f>(B22+D22)*1.6/7.4</f>
+        <v>13.4054054054054</v>
+      </c>
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="5">
+        <v>4050</v>
+      </c>
+      <c r="B23" s="5">
+        <v>30</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="D23" s="5">
+        <f>C23*50+20</f>
+        <v>30</v>
+      </c>
+      <c r="E23" s="6">
+        <f>(B23+D23)*1.6/7.4-1.99</f>
+        <v>10.982972972973</v>
+      </c>
+      <c r="F23" s="6">
+        <f>(B23+D23)*1.6/7.4</f>
+        <v>12.972972972973</v>
+      </c>
+      <c r="J23" s="7"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="5">
+        <v>6020</v>
+      </c>
+      <c r="B24" s="5">
         <v>35</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C24" s="5">
         <v>0.2</v>
       </c>
-      <c r="D10" s="1">
-        <f t="shared" si="0"/>
+      <c r="D24" s="5">
+        <f>C24*50+20</f>
         <v>30</v>
       </c>
-      <c r="E10" s="2">
-        <f t="shared" si="1"/>
+      <c r="E24" s="6">
+        <f>(B24+D24)*1.6/7.4-1.99</f>
         <v>12.0640540540541</v>
       </c>
-      <c r="F10" s="2">
-        <f t="shared" si="2"/>
+      <c r="F24" s="6">
+        <f>(B24+D24)*1.6/7.4</f>
         <v>14.0540540540541</v>
       </c>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B11" s="1">
-        <v>20</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="5">
+        <v>1059</v>
+      </c>
+      <c r="B25" s="5">
+        <v>35</v>
+      </c>
+      <c r="C25" s="5">
         <v>0.2</v>
       </c>
-      <c r="D11" s="1">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="E11" s="2">
-        <f t="shared" si="1"/>
-        <v>8.82081081081081</v>
-      </c>
-      <c r="F11" s="2">
-        <f t="shared" si="2"/>
-        <v>10.8108108108108</v>
-      </c>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B12" s="1">
-        <v>35</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D12" s="1">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="E12" s="2">
-        <f t="shared" si="1"/>
-        <v>12.0640540540541</v>
-      </c>
-      <c r="F12" s="2">
-        <f t="shared" si="2"/>
-        <v>14.0540540540541</v>
-      </c>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B13" s="1">
-        <v>35</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="D13" s="1">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="E13" s="2">
-        <f t="shared" si="1"/>
-        <v>13.1451351351351</v>
-      </c>
-      <c r="F13" s="2">
-        <f t="shared" si="2"/>
-        <v>15.1351351351351</v>
-      </c>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1">
-        <v>160</v>
-      </c>
-      <c r="B14" s="1">
-        <v>85</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="D14" s="1">
-        <f t="shared" si="0"/>
-        <v>110</v>
-      </c>
-      <c r="E14" s="2">
-        <f t="shared" si="1"/>
-        <v>40.1721621621622</v>
-      </c>
-      <c r="F14" s="2">
-        <f t="shared" si="2"/>
-        <v>42.1621621621622</v>
-      </c>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1">
-        <v>200</v>
-      </c>
-      <c r="B15" s="1">
-        <v>95</v>
-      </c>
-      <c r="C15" s="1">
-        <v>2.2</v>
-      </c>
-      <c r="D15" s="1">
-        <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="E15" s="2">
-        <f t="shared" si="1"/>
-        <v>46.6586486486486</v>
-      </c>
-      <c r="F15" s="2">
-        <f t="shared" si="2"/>
-        <v>48.6486486486486</v>
-      </c>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1">
-        <v>220</v>
-      </c>
-      <c r="B16" s="1">
-        <v>105</v>
-      </c>
-      <c r="C16" s="1">
-        <v>2.3</v>
-      </c>
-      <c r="D16" s="1">
-        <f t="shared" si="0"/>
-        <v>135</v>
-      </c>
-      <c r="E16" s="2">
-        <f t="shared" si="1"/>
-        <v>49.9018918918919</v>
-      </c>
-      <c r="F16" s="2">
-        <f t="shared" si="2"/>
-        <v>51.8918918918919</v>
-      </c>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="1">
-        <v>160</v>
-      </c>
-      <c r="B17" s="1">
-        <v>116</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="D17" s="1">
-        <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-      <c r="E17" s="2">
-        <f t="shared" si="1"/>
-        <v>43.6316216216216</v>
-      </c>
-      <c r="F17" s="2">
-        <f t="shared" si="2"/>
-        <v>45.6216216216216</v>
-      </c>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="1">
-        <v>200</v>
-      </c>
-      <c r="B18" s="1">
-        <v>152</v>
-      </c>
-      <c r="C18" s="1">
-        <v>2</v>
-      </c>
-      <c r="D18" s="1">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="E18" s="2">
-        <f t="shared" si="1"/>
-        <v>56.8208108108108</v>
-      </c>
-      <c r="F18" s="2">
-        <f t="shared" si="2"/>
-        <v>58.8108108108108</v>
-      </c>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="1">
-        <v>220</v>
-      </c>
-      <c r="B19" s="1">
-        <v>179</v>
-      </c>
-      <c r="C19" s="1">
-        <v>2.1</v>
-      </c>
-      <c r="D19" s="1">
-        <f t="shared" si="0"/>
-        <v>125</v>
-      </c>
-      <c r="E19" s="2">
-        <f t="shared" si="1"/>
-        <v>63.7397297297297</v>
-      </c>
-      <c r="F19" s="2">
-        <f t="shared" si="2"/>
-        <v>65.7297297297297</v>
-      </c>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B20" s="1">
-        <v>12</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="D20" s="1">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="E20" s="2">
-        <f t="shared" si="1"/>
-        <v>6.01</v>
-      </c>
-      <c r="F20" s="2">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B21" s="1">
-        <v>22</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D21" s="1">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="E21" s="2">
-        <f t="shared" si="1"/>
-        <v>9.25324324324324</v>
-      </c>
-      <c r="F21" s="2">
-        <f t="shared" si="2"/>
-        <v>11.2432432432432</v>
-      </c>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="1">
-        <v>1022</v>
-      </c>
-      <c r="B22" s="1">
-        <v>32</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D22" s="1">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="E22" s="2">
-        <f t="shared" si="1"/>
-        <v>11.4154054054054</v>
-      </c>
-      <c r="F22" s="2">
-        <f t="shared" si="2"/>
-        <v>13.4054054054054</v>
-      </c>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="1">
-        <v>4050</v>
-      </c>
-      <c r="B23" s="1">
-        <v>30</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D23" s="1">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="E23" s="2">
-        <f t="shared" si="1"/>
-        <v>10.982972972973</v>
-      </c>
-      <c r="F23" s="2">
-        <f t="shared" si="2"/>
-        <v>12.972972972973</v>
-      </c>
-      <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="1">
-        <v>6020</v>
-      </c>
-      <c r="B24" s="1">
-        <v>35</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D24" s="1">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="E24" s="2">
-        <f t="shared" si="1"/>
-        <v>12.0640540540541</v>
-      </c>
-      <c r="F24" s="2">
-        <f t="shared" si="2"/>
-        <v>14.0540540540541</v>
-      </c>
-      <c r="J24" s="3"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="1">
-        <v>1059</v>
-      </c>
-      <c r="B25" s="1">
-        <v>35</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D25" s="1">
+      <c r="D25" s="5">
         <f>C25*50+20</f>
         <v>30</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="6">
         <f>(B25+D25)*1.6/7.4-1.99</f>
         <v>12.0640540540541</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="6">
         <f>(B25+D25)*1.6/7.4</f>
         <v>14.0540540540541</v>
       </c>
-      <c r="J25" s="3"/>
+      <c r="J25" s="7"/>
     </row>
     <row r="26" spans="10:10">
-      <c r="J26" s="3"/>
+      <c r="J26" s="7"/>
     </row>
     <row r="27" spans="10:10">
-      <c r="J27" s="3"/>
+      <c r="J27" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -3710,18 +3790,218 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" width="16" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="1" customWidth="1"/>
+    <col min="6" max="12" width="17.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.75" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="1"/>
+    <col min="16" max="16" width="19.625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="16.125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="17.625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="23.875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="18.25" style="1" customWidth="1"/>
+    <col min="21" max="21" width="13.75" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="1">
+        <v>20.99</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" spans="3:21">
+      <c r="C3" s="2"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/常用关键词库.xlsx
+++ b/常用关键词库.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="8370" activeTab="5"/>
+    <workbookView windowWidth="28695" windowHeight="13200" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="关键词" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,6 @@
     <definedName name="recommended_browse_nodes_">'[1]Dropdown Lists'!$A$4</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
-  <extLst/>
 </workbook>
 </file>
 
@@ -37,7 +36,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -58,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337">
   <si>
     <t>类型</t>
   </si>
@@ -736,7 +734,10 @@
     <t>运费</t>
   </si>
   <si>
-    <t>亚马逊售价</t>
+    <t>亚马逊最低价</t>
+  </si>
+  <si>
+    <t>亚马逊标价</t>
   </si>
   <si>
     <t>Ebay售价</t>
@@ -817,9 +818,6 @@
     <t>宽泛关键词8</t>
   </si>
   <si>
-    <t>宽泛关键词9</t>
-  </si>
-  <si>
     <t>定语1</t>
   </si>
   <si>
@@ -871,9 +869,6 @@
     <t>Sweater</t>
   </si>
   <si>
-    <t>Sweatshirt</t>
-  </si>
-  <si>
     <t>Die Klamotte</t>
   </si>
   <si>
@@ -941,6 +936,138 @@
   </si>
   <si>
     <t>银河打印</t>
+  </si>
+  <si>
+    <t>女装紧身长裤</t>
+  </si>
+  <si>
+    <t>Sport Leggings/Sportleggings</t>
+  </si>
+  <si>
+    <t>Sport Hose</t>
+  </si>
+  <si>
+    <t>Sporthose</t>
+  </si>
+  <si>
+    <t>Leggings</t>
+  </si>
+  <si>
+    <t>Laufhose</t>
+  </si>
+  <si>
+    <t>Stretch Hose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funktionswäsche </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tights </t>
+  </si>
+  <si>
+    <t>Pants</t>
+  </si>
+  <si>
+    <t>Gymnastik/Gym</t>
+  </si>
+  <si>
+    <t>Base Layer</t>
+  </si>
+  <si>
+    <t>Yoga</t>
+  </si>
+  <si>
+    <t>Fitness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Workout </t>
+  </si>
+  <si>
+    <t>athletische</t>
+  </si>
+  <si>
+    <t>Aktive</t>
+  </si>
+  <si>
+    <t>mit Tasche</t>
+  </si>
+  <si>
+    <t>praktische</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoch Taille/High Waist </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stretch </t>
+  </si>
+  <si>
+    <t>Laser</t>
+  </si>
+  <si>
+    <t>Farbe</t>
+  </si>
+  <si>
+    <t>Kompressions/Compression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pro Cool </t>
+  </si>
+  <si>
+    <t>Skinny</t>
+  </si>
+  <si>
+    <t>弹力裤</t>
+  </si>
+  <si>
+    <t>功能内衣</t>
+  </si>
+  <si>
+    <t>裤袜</t>
+  </si>
+  <si>
+    <t>裤子（英语）</t>
+  </si>
+  <si>
+    <t>健身</t>
+  </si>
+  <si>
+    <t>基础层+Hose</t>
+  </si>
+  <si>
+    <t>瑜伽</t>
+  </si>
+  <si>
+    <t>锻炼</t>
+  </si>
+  <si>
+    <t>比赛</t>
+  </si>
+  <si>
+    <t>活跃</t>
+  </si>
+  <si>
+    <t>有口袋的</t>
+  </si>
+  <si>
+    <t>实用的</t>
+  </si>
+  <si>
+    <t>高腰</t>
+  </si>
+  <si>
+    <t>拉伸/弹力</t>
+  </si>
+  <si>
+    <t>镭射</t>
+  </si>
+  <si>
+    <t>压缩</t>
+  </si>
+  <si>
+    <t>冰爽</t>
+  </si>
+  <si>
+    <t>枯瘦</t>
   </si>
 </sst>
 </file>
@@ -948,10 +1075,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
@@ -989,13 +1116,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -1013,11 +1140,24 @@
       <charset val="0"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="62"/>
+      <sz val="11"/>
+      <color indexed="52"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="0"/>
     </font>
     <font>
       <b/>
@@ -1027,16 +1167,25 @@
       <charset val="0"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="10"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="52"/>
+      <b/>
+      <sz val="18"/>
+      <color indexed="62"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -1053,10 +1202,23 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1071,43 +1233,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="23">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1116,19 +1243,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="45"/>
+        <fgColor theme="5" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
+        <fgColor theme="6" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
+        <fgColor theme="8" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1152,7 +1303,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1164,13 +1333,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="27"/>
+        <fgColor indexed="49"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="29"/>
+        <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1182,13 +1351,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
+        <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1200,25 +1363,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1230,13 +1375,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="55"/>
+        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1251,16 +1402,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1295,6 +1446,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="63"/>
       </left>
@@ -1306,15 +1466,6 @@
       </top>
       <bottom style="thin">
         <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1343,6 +1494,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1362,172 +1528,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
-      <bottom style="double">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1543,15 +1694,33 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1567,10 +1736,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1579,7 +1748,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1598,59 +1767,60 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="强调文字颜色 4" xfId="3"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="百分比" xfId="5" builtinId="5"/>
-    <cellStyle name="标题" xfId="6"/>
-    <cellStyle name="货币[0]" xfId="7" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="8"/>
-    <cellStyle name="输入" xfId="9"/>
-    <cellStyle name="差" xfId="10"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="12"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
-    <cellStyle name="注释" xfId="15"/>
-    <cellStyle name="警告文本" xfId="16"/>
-    <cellStyle name="标题 4" xfId="17"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="18"/>
-    <cellStyle name="解释性文本" xfId="19"/>
-    <cellStyle name="标题 1" xfId="20"/>
-    <cellStyle name="标题 2" xfId="21"/>
-    <cellStyle name="标题 3" xfId="22"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="23"/>
-    <cellStyle name="输出" xfId="24"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="25"/>
-    <cellStyle name="计算" xfId="26"/>
-    <cellStyle name="检查单元格" xfId="27"/>
-    <cellStyle name="链接单元格" xfId="28"/>
-    <cellStyle name="强调文字颜色 2" xfId="29"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30"/>
-    <cellStyle name="汇总" xfId="31"/>
-    <cellStyle name="好" xfId="32"/>
-    <cellStyle name="适中" xfId="33"/>
-    <cellStyle name="强调文字颜色 1" xfId="34"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="35"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="36"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="37"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="38"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="39"/>
-    <cellStyle name="强调文字颜色 3" xfId="40"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42"/>
-    <cellStyle name="强调文字颜色 5" xfId="43"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45"/>
-    <cellStyle name="强调文字颜色 6" xfId="46"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
       <font>
         <name val="Calibri"/>
+        <scheme val="none"/>
         <family val="2"/>
         <b val="0"/>
         <i val="0"/>
@@ -1658,7 +1828,7 @@
         <color indexed="8"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <fgColor indexed="10"/>
           <bgColor indexed="9"/>
         </patternFill>
@@ -1679,6 +1849,12 @@
       </border>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1771,71 +1947,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2047,12 +2223,11 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C47"/>
   <sheetViews>
@@ -2068,141 +2243,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="27" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="20"/>
-      <c r="B3" s="21" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="27" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="20"/>
-      <c r="B4" s="21" t="s">
+      <c r="A4" s="26"/>
+      <c r="B4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="20"/>
-      <c r="B5" s="21" t="s">
+      <c r="A5" s="26"/>
+      <c r="B5" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="27" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21" t="s">
+      <c r="A6" s="26"/>
+      <c r="B6" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="27" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="27" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21" t="s">
+      <c r="A8" s="26"/>
+      <c r="B8" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="27" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="20"/>
-      <c r="B9" s="21" t="s">
+      <c r="A9" s="26"/>
+      <c r="B9" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="27" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21" t="s">
+      <c r="A10" s="26"/>
+      <c r="B10" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21" t="s">
+      <c r="A11" s="26"/>
+      <c r="B11" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="27" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="27" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="21" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="27" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="21" t="s">
+      <c r="A14" s="13"/>
+      <c r="B14" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="27" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="5"/>
+      <c r="A15" s="13"/>
       <c r="B15" t="s">
         <v>30</v>
       </c>
@@ -2211,8 +2386,8 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="21" t="s">
+      <c r="A16" s="13"/>
+      <c r="B16" s="27" t="s">
         <v>32</v>
       </c>
       <c r="C16" t="s">
@@ -2220,7 +2395,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="13" t="s">
         <v>34</v>
       </c>
       <c r="B17" t="s">
@@ -2231,7 +2406,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="5"/>
+      <c r="A18" s="13"/>
       <c r="B18" t="s">
         <v>37</v>
       </c>
@@ -2240,7 +2415,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="5"/>
+      <c r="A19" s="13"/>
       <c r="B19" t="s">
         <v>39</v>
       </c>
@@ -2249,7 +2424,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="5"/>
+      <c r="A20" s="13"/>
       <c r="B20" t="s">
         <v>41</v>
       </c>
@@ -2258,7 +2433,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="5"/>
+      <c r="A21" s="13"/>
       <c r="B21" t="s">
         <v>43</v>
       </c>
@@ -2267,7 +2442,7 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="5"/>
+      <c r="A22" s="13"/>
       <c r="B22" t="s">
         <v>45</v>
       </c>
@@ -2276,7 +2451,7 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="13" t="s">
         <v>47</v>
       </c>
       <c r="B23" t="s">
@@ -2287,7 +2462,7 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="5"/>
+      <c r="A24" s="13"/>
       <c r="B24" t="s">
         <v>50</v>
       </c>
@@ -2296,7 +2471,7 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="5"/>
+      <c r="A25" s="13"/>
       <c r="B25" t="s">
         <v>52</v>
       </c>
@@ -2305,7 +2480,7 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="5"/>
+      <c r="A26" s="13"/>
       <c r="B26" t="s">
         <v>54</v>
       </c>
@@ -2314,7 +2489,7 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="5"/>
+      <c r="A27" s="13"/>
       <c r="B27" t="s">
         <v>56</v>
       </c>
@@ -2323,22 +2498,22 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="5"/>
+      <c r="A28" s="13"/>
       <c r="B28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="29" ht="40.5" spans="1:3">
-      <c r="A29" s="5"/>
+      <c r="A29" s="13"/>
       <c r="B29" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="28" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="5"/>
+      <c r="A30" s="13"/>
       <c r="B30" t="s">
         <v>61</v>
       </c>
@@ -2355,7 +2530,7 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="13" t="s">
         <v>65</v>
       </c>
       <c r="B32" t="s">
@@ -2363,25 +2538,25 @@
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="5"/>
+      <c r="A33" s="13"/>
       <c r="B33" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="5"/>
+      <c r="A34" s="13"/>
       <c r="B34" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="5"/>
+      <c r="A35" s="13"/>
       <c r="B35" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="5"/>
+      <c r="A36" s="13"/>
       <c r="B36" t="s">
         <v>70</v>
       </c>
@@ -2395,7 +2570,7 @@
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="13" t="s">
         <v>73</v>
       </c>
       <c r="B38" t="s">
@@ -2403,25 +2578,25 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="5"/>
+      <c r="A39" s="13"/>
       <c r="B39" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="5"/>
+      <c r="A40" s="13"/>
       <c r="B40" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="5"/>
+      <c r="A41" s="13"/>
       <c r="B41" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="5"/>
+      <c r="A42" s="13"/>
       <c r="B42" t="s">
         <v>78</v>
       </c>
@@ -2435,7 +2610,7 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="13" t="s">
         <v>80</v>
       </c>
       <c r="B44" t="s">
@@ -2443,13 +2618,13 @@
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="5"/>
+      <c r="A45" s="13"/>
       <c r="B45" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="5"/>
+      <c r="A46" s="13"/>
       <c r="B46" t="s">
         <v>83</v>
       </c>
@@ -2477,7 +2652,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C17"/>
   <sheetViews>
@@ -2493,18 +2668,18 @@
   </cols>
   <sheetData>
     <row r="1" ht="24.75" customHeight="1" spans="1:3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="13" t="s">
         <v>86</v>
       </c>
       <c r="B2" t="s">
@@ -2515,7 +2690,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="5"/>
+      <c r="A3" s="13"/>
       <c r="B3" t="s">
         <v>89</v>
       </c>
@@ -2524,7 +2699,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="5"/>
+      <c r="A4" s="13"/>
       <c r="B4" t="s">
         <v>91</v>
       </c>
@@ -2533,7 +2708,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="5"/>
+      <c r="A5" s="13"/>
       <c r="B5" t="s">
         <v>93</v>
       </c>
@@ -2542,7 +2717,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="5"/>
+      <c r="A6" s="13"/>
       <c r="B6" t="s">
         <v>95</v>
       </c>
@@ -2551,7 +2726,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="13" t="s">
         <v>97</v>
       </c>
       <c r="B7" t="s">
@@ -2562,7 +2737,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="5"/>
+      <c r="A8" s="13"/>
       <c r="B8" t="s">
         <v>100</v>
       </c>
@@ -2571,7 +2746,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="5"/>
+      <c r="A9" s="13"/>
       <c r="B9" t="s">
         <v>102</v>
       </c>
@@ -2580,7 +2755,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="5"/>
+      <c r="A10" s="13"/>
       <c r="B10" t="s">
         <v>104</v>
       </c>
@@ -2600,7 +2775,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B12" t="s">
@@ -2611,7 +2786,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="5"/>
+      <c r="A13" s="13"/>
       <c r="B13" t="s">
         <v>111</v>
       </c>
@@ -2620,7 +2795,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="5"/>
+      <c r="A14" s="13"/>
       <c r="B14" t="s">
         <v>113</v>
       </c>
@@ -2629,7 +2804,7 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="13" t="s">
         <v>115</v>
       </c>
       <c r="B15" t="s">
@@ -2640,7 +2815,7 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="5"/>
+      <c r="A16" s="13"/>
       <c r="B16" t="s">
         <v>118</v>
       </c>
@@ -2649,7 +2824,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="5"/>
+      <c r="A17" s="13"/>
       <c r="B17" t="s">
         <v>120</v>
       </c>
@@ -2671,12 +2846,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2686,236 +2861,236 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="15" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="2" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="17" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="3" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="18" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="4" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="19" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="5" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="19" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="6" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="19" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="7" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="20" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="17" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="9" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="19" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="10" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="19" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="11" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="17" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="17" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="22" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="14" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="22" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="16" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="16" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:3">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="23" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:3">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="23" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5" t="s">
+      <c r="B19" s="13"/>
+      <c r="C19" s="13" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C8:C10 C3">
@@ -2933,7 +3108,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E15"/>
   <sheetViews>
@@ -2949,16 +3124,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="13" t="s">
         <v>181</v>
       </c>
       <c r="E1" t="s">
@@ -2966,131 +3141,131 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="13" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="5"/>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="13" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="5"/>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="13" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="5"/>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="13" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="5"/>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="13" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="5"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="13" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="13" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="5"/>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="13" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="5"/>
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="13" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="5"/>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="13" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B12" t="s">
@@ -3099,7 +3274,7 @@
       <c r="C12" t="s">
         <v>211</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="13" t="s">
         <v>189</v>
       </c>
       <c r="E12" t="s">
@@ -3107,14 +3282,14 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="5"/>
+      <c r="A13" s="13"/>
       <c r="B13" t="s">
         <v>213</v>
       </c>
       <c r="C13" t="s">
         <v>214</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="13" t="s">
         <v>192</v>
       </c>
       <c r="E13" t="s">
@@ -3122,14 +3297,14 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="5"/>
+      <c r="A14" s="13"/>
       <c r="B14" t="s">
         <v>215</v>
       </c>
       <c r="C14" t="s">
         <v>216</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="13" t="s">
         <v>195</v>
       </c>
       <c r="E14" t="s">
@@ -3137,14 +3312,14 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="5"/>
+      <c r="A15" s="13"/>
       <c r="B15" t="s">
         <v>218</v>
       </c>
       <c r="C15" t="s">
         <v>219</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="13" t="s">
         <v>198</v>
       </c>
       <c r="E15" t="s">
@@ -3164,623 +3339,1054 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11" style="5" customWidth="1"/>
-    <col min="2" max="4" width="9" style="5"/>
-    <col min="5" max="5" width="10.875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="6"/>
-    <col min="10" max="10" width="16"/>
+    <col min="1" max="1" width="11" style="8" customWidth="1"/>
+    <col min="2" max="4" width="9" style="8"/>
+    <col min="5" max="5" width="14.25" style="9" customWidth="1"/>
+    <col min="6" max="6" width="16.5" style="10" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="9"/>
+    <col min="8" max="9" width="9" style="11"/>
+    <col min="10" max="10" width="16" style="11"/>
+    <col min="11" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="10" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="5" t="s">
+      <c r="G1" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="B2" s="5">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" s="8">
         <v>43</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="8">
         <v>0.5</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="8">
         <f t="shared" ref="D2:D25" si="0">C2*50+20</f>
         <v>45</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="9">
         <f t="shared" ref="E2:E25" si="1">(B2+D2)*1.6/7.4-1.99</f>
         <v>17.037027027027</v>
       </c>
-      <c r="F2" s="6">
-        <f t="shared" ref="F2:F25" si="2">(B2+D2)*1.6/7.4</f>
+      <c r="F2" s="10">
+        <f>E2*1.2</f>
+        <v>20.4444324324324</v>
+      </c>
+      <c r="G2" s="9">
+        <f t="shared" ref="G2:G25" si="2">(B2+D2)*1.6/7.4</f>
         <v>19.027027027027</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="B3" s="5">
+      <c r="A3" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B3" s="8">
         <v>155</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="8">
         <v>1.2</v>
       </c>
-      <c r="D3" s="5">
-        <f>C3*50+20</f>
+      <c r="D3" s="8">
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="E3" s="6">
-        <f>(B3+D3)*1.6/7.4-1.99</f>
+      <c r="E3" s="9">
+        <f t="shared" si="1"/>
         <v>48.8208108108108</v>
       </c>
-      <c r="F3" s="6">
-        <f>(B3+D3)*1.6/7.4</f>
+      <c r="F3" s="10">
+        <f t="shared" ref="F3:F26" si="3">E3*1.2</f>
+        <v>58.584972972973</v>
+      </c>
+      <c r="G3" s="9">
+        <f t="shared" si="2"/>
         <v>50.8108108108108</v>
       </c>
-      <c r="J3" s="7"/>
+      <c r="J3" s="12"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B4" s="5">
+      <c r="A4" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="B4" s="8">
         <v>165</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="8">
         <v>1.4</v>
       </c>
-      <c r="D4" s="5">
-        <f>C4*50+20</f>
+      <c r="D4" s="8">
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="E4" s="6">
-        <f>(B4+D4)*1.6/7.4-1.99</f>
+      <c r="E4" s="9">
+        <f t="shared" si="1"/>
         <v>53.1451351351351</v>
       </c>
-      <c r="F4" s="6">
-        <f>(B4+D4)*1.6/7.4</f>
+      <c r="F4" s="10">
+        <f t="shared" si="3"/>
+        <v>63.7741621621621</v>
+      </c>
+      <c r="G4" s="9">
+        <f t="shared" si="2"/>
         <v>55.1351351351351</v>
       </c>
-      <c r="J4" s="7"/>
+      <c r="J4" s="12"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B5" s="5">
+      <c r="A5" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="B5" s="8">
         <v>169</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="8">
         <v>1.5</v>
       </c>
-      <c r="D5" s="5">
-        <f>C5*50+20</f>
+      <c r="D5" s="8">
+        <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="E5" s="6">
-        <f>(B5+D5)*1.6/7.4-1.99</f>
+      <c r="E5" s="9">
+        <f t="shared" si="1"/>
         <v>55.0910810810811</v>
       </c>
-      <c r="F5" s="6">
-        <f>(B5+D5)*1.6/7.4</f>
+      <c r="F5" s="10">
+        <f t="shared" si="3"/>
+        <v>66.1092972972973</v>
+      </c>
+      <c r="G5" s="9">
+        <f t="shared" si="2"/>
         <v>57.0810810810811</v>
       </c>
-      <c r="J5" s="7"/>
+      <c r="J5" s="12"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="B6" s="5">
+      <c r="A6" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="B6" s="8">
         <v>90</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="8">
         <v>1.2</v>
       </c>
-      <c r="D6" s="5">
-        <f>C6*50+20</f>
+      <c r="D6" s="8">
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="E6" s="6">
-        <f>(B6+D6)*1.6/7.4-1.99</f>
+      <c r="E6" s="9">
+        <f t="shared" si="1"/>
         <v>34.7667567567568</v>
       </c>
-      <c r="F6" s="6">
-        <f>(B6+D6)*1.6/7.4</f>
+      <c r="F6" s="10">
+        <f t="shared" si="3"/>
+        <v>41.7201081081081</v>
+      </c>
+      <c r="G6" s="9">
+        <f t="shared" si="2"/>
         <v>36.7567567567568</v>
       </c>
-      <c r="J6" s="7"/>
+      <c r="J6" s="12"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="B7" s="5">
+      <c r="A7" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B7" s="8">
         <v>95</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="8">
         <v>1.2</v>
       </c>
-      <c r="D7" s="5">
-        <f>C7*50+20</f>
+      <c r="D7" s="8">
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="E7" s="6">
-        <f>(B7+D7)*1.6/7.4-1.99</f>
+      <c r="E7" s="9">
+        <f t="shared" si="1"/>
         <v>35.8478378378378</v>
       </c>
-      <c r="F7" s="6">
-        <f>(B7+D7)*1.6/7.4</f>
+      <c r="F7" s="10">
+        <f t="shared" si="3"/>
+        <v>43.0174054054054</v>
+      </c>
+      <c r="G7" s="9">
+        <f t="shared" si="2"/>
         <v>37.8378378378378</v>
       </c>
-      <c r="J7" s="7"/>
+      <c r="J7" s="12"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="B8" s="5">
+      <c r="A8" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="B8" s="8">
         <v>99</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="8">
         <v>1.5</v>
       </c>
-      <c r="D8" s="5">
-        <f>C8*50+20</f>
+      <c r="D8" s="8">
+        <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="E8" s="6">
-        <f>(B8+D8)*1.6/7.4-1.99</f>
+      <c r="E8" s="9">
+        <f t="shared" si="1"/>
         <v>39.9559459459459</v>
       </c>
-      <c r="F8" s="6">
-        <f>(B8+D8)*1.6/7.4</f>
+      <c r="F8" s="10">
+        <f t="shared" si="3"/>
+        <v>47.9471351351351</v>
+      </c>
+      <c r="G8" s="9">
+        <f t="shared" si="2"/>
         <v>41.945945945946</v>
       </c>
-      <c r="J8" s="7"/>
+      <c r="J8" s="12"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="B9" s="5">
+      <c r="A9" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="B9" s="8">
         <v>50</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="8">
         <v>0.5</v>
       </c>
-      <c r="D9" s="5">
-        <f>C9*50+20</f>
+      <c r="D9" s="8">
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="E9" s="6">
-        <f>(B9+D9)*1.6/7.4-1.99</f>
+      <c r="E9" s="9">
+        <f t="shared" si="1"/>
         <v>18.5505405405405</v>
       </c>
-      <c r="F9" s="6">
-        <f>(B9+D9)*1.6/7.4</f>
+      <c r="F9" s="10">
+        <f t="shared" si="3"/>
+        <v>22.2606486486487</v>
+      </c>
+      <c r="G9" s="9">
+        <f t="shared" si="2"/>
         <v>20.5405405405405</v>
       </c>
-      <c r="J9" s="7"/>
+      <c r="J9" s="12"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="B10" s="5">
+      <c r="A10" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="B10" s="8">
         <v>35</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="8">
         <v>0.2</v>
       </c>
-      <c r="D10" s="5">
-        <f>C10*50+20</f>
+      <c r="D10" s="8">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="E10" s="6">
-        <f>(B10+D10)*1.6/7.4-1.99</f>
+      <c r="E10" s="9">
+        <f t="shared" si="1"/>
         <v>12.0640540540541</v>
       </c>
-      <c r="F10" s="6">
-        <f>(B10+D10)*1.6/7.4</f>
+      <c r="F10" s="10">
+        <f t="shared" si="3"/>
+        <v>14.4768648648649</v>
+      </c>
+      <c r="G10" s="9">
+        <f t="shared" si="2"/>
         <v>14.0540540540541</v>
       </c>
-      <c r="J10" s="7"/>
+      <c r="J10" s="12"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="B11" s="5">
+      <c r="A11" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B11" s="8">
         <v>20</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="8">
         <v>0.2</v>
       </c>
-      <c r="D11" s="5">
-        <f>C11*50+20</f>
+      <c r="D11" s="8">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="E11" s="6">
-        <f>(B11+D11)*1.6/7.4-1.99</f>
+      <c r="E11" s="9">
+        <f t="shared" si="1"/>
         <v>8.82081081081081</v>
       </c>
-      <c r="F11" s="6">
-        <f>(B11+D11)*1.6/7.4</f>
+      <c r="F11" s="10">
+        <f t="shared" si="3"/>
+        <v>10.584972972973</v>
+      </c>
+      <c r="G11" s="9">
+        <f t="shared" si="2"/>
         <v>10.8108108108108</v>
       </c>
-      <c r="J11" s="7"/>
+      <c r="J11" s="12"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="B12" s="5">
+      <c r="A12" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B12" s="8">
         <v>35</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="8">
         <v>0.2</v>
       </c>
-      <c r="D12" s="5">
-        <f>C12*50+20</f>
+      <c r="D12" s="8">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="E12" s="6">
-        <f>(B12+D12)*1.6/7.4-1.99</f>
+      <c r="E12" s="9">
+        <f t="shared" si="1"/>
         <v>12.0640540540541</v>
       </c>
-      <c r="F12" s="6">
-        <f>(B12+D12)*1.6/7.4</f>
+      <c r="F12" s="10">
+        <f t="shared" si="3"/>
+        <v>14.4768648648649</v>
+      </c>
+      <c r="G12" s="9">
+        <f t="shared" si="2"/>
         <v>14.0540540540541</v>
       </c>
-      <c r="J12" s="7"/>
+      <c r="J12" s="12"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="B13" s="5">
+      <c r="A13" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="B13" s="8">
         <v>35</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="8">
         <v>0.3</v>
       </c>
-      <c r="D13" s="5">
-        <f>C13*50+20</f>
+      <c r="D13" s="8">
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="E13" s="6">
-        <f>(B13+D13)*1.6/7.4-1.99</f>
+      <c r="E13" s="9">
+        <f t="shared" si="1"/>
         <v>13.1451351351351</v>
       </c>
-      <c r="F13" s="6">
-        <f>(B13+D13)*1.6/7.4</f>
+      <c r="F13" s="10">
+        <f t="shared" si="3"/>
+        <v>15.7741621621622</v>
+      </c>
+      <c r="G13" s="9">
+        <f t="shared" si="2"/>
         <v>15.1351351351351</v>
       </c>
-      <c r="J13" s="7"/>
+      <c r="J13" s="12"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="5">
+      <c r="A14" s="8">
         <v>160</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="8">
         <v>85</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="8">
         <v>1.8</v>
       </c>
-      <c r="D14" s="5">
-        <f>C14*50+20</f>
+      <c r="D14" s="8">
+        <f t="shared" si="0"/>
         <v>110</v>
       </c>
-      <c r="E14" s="6">
-        <f>(B14+D14)*1.6/7.4-1.99</f>
+      <c r="E14" s="9">
+        <f t="shared" si="1"/>
         <v>40.1721621621622</v>
       </c>
-      <c r="F14" s="6">
-        <f>(B14+D14)*1.6/7.4</f>
+      <c r="F14" s="10">
+        <f t="shared" si="3"/>
+        <v>48.2065945945946</v>
+      </c>
+      <c r="G14" s="9">
+        <f t="shared" si="2"/>
         <v>42.1621621621622</v>
       </c>
-      <c r="J14" s="7"/>
+      <c r="J14" s="12"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="5">
+      <c r="A15" s="8">
         <v>200</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="8">
         <v>95</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="8">
         <v>2.2</v>
       </c>
-      <c r="D15" s="5">
-        <f>C15*50+20</f>
+      <c r="D15" s="8">
+        <f t="shared" si="0"/>
         <v>130</v>
       </c>
-      <c r="E15" s="6">
-        <f>(B15+D15)*1.6/7.4-1.99</f>
+      <c r="E15" s="9">
+        <f t="shared" si="1"/>
         <v>46.6586486486486</v>
       </c>
-      <c r="F15" s="6">
-        <f>(B15+D15)*1.6/7.4</f>
+      <c r="F15" s="10">
+        <f t="shared" si="3"/>
+        <v>55.9903783783784</v>
+      </c>
+      <c r="G15" s="9">
+        <f t="shared" si="2"/>
         <v>48.6486486486486</v>
       </c>
-      <c r="J15" s="7"/>
+      <c r="J15" s="12"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="5">
+      <c r="A16" s="8">
         <v>220</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="8">
         <v>105</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="8">
         <v>2.3</v>
       </c>
-      <c r="D16" s="5">
-        <f>C16*50+20</f>
+      <c r="D16" s="8">
+        <f t="shared" si="0"/>
         <v>135</v>
       </c>
-      <c r="E16" s="6">
-        <f>(B16+D16)*1.6/7.4-1.99</f>
+      <c r="E16" s="9">
+        <f t="shared" si="1"/>
         <v>49.9018918918919</v>
       </c>
-      <c r="F16" s="6">
-        <f>(B16+D16)*1.6/7.4</f>
+      <c r="F16" s="10">
+        <f t="shared" si="3"/>
+        <v>59.8822702702703</v>
+      </c>
+      <c r="G16" s="9">
+        <f t="shared" si="2"/>
         <v>51.8918918918919</v>
       </c>
-      <c r="J16" s="7"/>
+      <c r="J16" s="12"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="5">
+      <c r="A17" s="8">
         <v>160</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="8">
         <v>116</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="8">
         <v>1.5</v>
       </c>
-      <c r="D17" s="5">
-        <f>C17*50+20</f>
+      <c r="D17" s="8">
+        <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="E17" s="6">
-        <f>(B17+D17)*1.6/7.4-1.99</f>
+      <c r="E17" s="9">
+        <f t="shared" si="1"/>
         <v>43.6316216216216</v>
       </c>
-      <c r="F17" s="6">
-        <f>(B17+D17)*1.6/7.4</f>
+      <c r="F17" s="10">
+        <f t="shared" si="3"/>
+        <v>52.3579459459459</v>
+      </c>
+      <c r="G17" s="9">
+        <f t="shared" si="2"/>
         <v>45.6216216216216</v>
       </c>
-      <c r="J17" s="7"/>
+      <c r="J17" s="12"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="5">
+      <c r="A18" s="8">
         <v>200</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="8">
         <v>152</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="8">
         <v>2</v>
       </c>
-      <c r="D18" s="5">
-        <f>C18*50+20</f>
+      <c r="D18" s="8">
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="E18" s="6">
-        <f>(B18+D18)*1.6/7.4-1.99</f>
+      <c r="E18" s="9">
+        <f t="shared" si="1"/>
         <v>56.8208108108108</v>
       </c>
-      <c r="F18" s="6">
-        <f>(B18+D18)*1.6/7.4</f>
+      <c r="F18" s="10">
+        <f t="shared" si="3"/>
+        <v>68.184972972973</v>
+      </c>
+      <c r="G18" s="9">
+        <f t="shared" si="2"/>
         <v>58.8108108108108</v>
       </c>
-      <c r="J18" s="7"/>
+      <c r="J18" s="12"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="5">
+      <c r="A19" s="8">
         <v>220</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="8">
         <v>179</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="8">
         <v>2.1</v>
       </c>
-      <c r="D19" s="5">
-        <f>C19*50+20</f>
+      <c r="D19" s="8">
+        <f t="shared" si="0"/>
         <v>125</v>
       </c>
-      <c r="E19" s="6">
-        <f>(B19+D19)*1.6/7.4-1.99</f>
+      <c r="E19" s="9">
+        <f t="shared" si="1"/>
         <v>63.7397297297297</v>
       </c>
-      <c r="F19" s="6">
-        <f>(B19+D19)*1.6/7.4</f>
+      <c r="F19" s="10">
+        <f t="shared" si="3"/>
+        <v>76.4876756756757</v>
+      </c>
+      <c r="G19" s="9">
+        <f t="shared" si="2"/>
         <v>65.7297297297297</v>
       </c>
-      <c r="J19" s="7"/>
+      <c r="J19" s="12"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="B20" s="5">
+      <c r="A20" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B20" s="8">
         <v>12</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="8">
         <v>0.1</v>
       </c>
-      <c r="D20" s="5">
-        <f>C20*50+20</f>
+      <c r="D20" s="8">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="E20" s="6">
-        <f>(B20+D20)*1.6/7.4-1.99</f>
+      <c r="E20" s="9">
+        <f t="shared" si="1"/>
         <v>6.01</v>
       </c>
-      <c r="F20" s="6">
-        <f>(B20+D20)*1.6/7.4</f>
+      <c r="F20" s="10">
+        <f t="shared" si="3"/>
+        <v>7.212</v>
+      </c>
+      <c r="G20" s="9">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="J20" s="7"/>
+      <c r="J20" s="12"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B21" s="5">
+      <c r="A21" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="B21" s="8">
         <v>22</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="8">
         <v>0.2</v>
       </c>
-      <c r="D21" s="5">
-        <f>C21*50+20</f>
+      <c r="D21" s="8">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="E21" s="6">
-        <f>(B21+D21)*1.6/7.4-1.99</f>
+      <c r="E21" s="9">
+        <f t="shared" si="1"/>
         <v>9.25324324324324</v>
       </c>
-      <c r="F21" s="6">
-        <f>(B21+D21)*1.6/7.4</f>
+      <c r="F21" s="10">
+        <f t="shared" si="3"/>
+        <v>11.1038918918919</v>
+      </c>
+      <c r="G21" s="9">
+        <f t="shared" si="2"/>
         <v>11.2432432432432</v>
       </c>
-      <c r="J21" s="7"/>
+      <c r="J21" s="12"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="5">
+      <c r="A22" s="8">
         <v>1022</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="8">
         <v>32</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="8">
         <v>0.2</v>
       </c>
-      <c r="D22" s="5">
-        <f>C22*50+20</f>
+      <c r="D22" s="8">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="E22" s="6">
-        <f>(B22+D22)*1.6/7.4-1.99</f>
+      <c r="E22" s="9">
+        <f t="shared" si="1"/>
         <v>11.4154054054054</v>
       </c>
-      <c r="F22" s="6">
-        <f>(B22+D22)*1.6/7.4</f>
+      <c r="F22" s="10">
+        <f t="shared" si="3"/>
+        <v>13.6984864864865</v>
+      </c>
+      <c r="G22" s="9">
+        <f t="shared" si="2"/>
         <v>13.4054054054054</v>
       </c>
-      <c r="J22" s="7"/>
+      <c r="J22" s="12"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="5">
+      <c r="A23" s="8">
         <v>4050</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="8">
         <v>30</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="8">
         <v>0.2</v>
       </c>
-      <c r="D23" s="5">
-        <f>C23*50+20</f>
+      <c r="D23" s="8">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="E23" s="6">
-        <f>(B23+D23)*1.6/7.4-1.99</f>
+      <c r="E23" s="9">
+        <f t="shared" si="1"/>
         <v>10.982972972973</v>
       </c>
-      <c r="F23" s="6">
-        <f>(B23+D23)*1.6/7.4</f>
+      <c r="F23" s="10">
+        <f t="shared" si="3"/>
+        <v>13.1795675675676</v>
+      </c>
+      <c r="G23" s="9">
+        <f t="shared" si="2"/>
         <v>12.972972972973</v>
       </c>
-      <c r="J23" s="7"/>
+      <c r="J23" s="12"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="5">
+      <c r="A24" s="8">
         <v>6020</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="8">
         <v>35</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="8">
         <v>0.2</v>
       </c>
-      <c r="D24" s="5">
-        <f>C24*50+20</f>
+      <c r="D24" s="8">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="E24" s="6">
-        <f>(B24+D24)*1.6/7.4-1.99</f>
+      <c r="E24" s="9">
+        <f t="shared" si="1"/>
         <v>12.0640540540541</v>
       </c>
-      <c r="F24" s="6">
-        <f>(B24+D24)*1.6/7.4</f>
+      <c r="F24" s="10">
+        <f t="shared" si="3"/>
+        <v>14.4768648648649</v>
+      </c>
+      <c r="G24" s="9">
+        <f t="shared" si="2"/>
         <v>14.0540540540541</v>
       </c>
-      <c r="J24" s="7"/>
+      <c r="J24" s="12"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="5">
+      <c r="A25" s="8">
         <v>1059</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="8">
         <v>35</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="8">
         <v>0.2</v>
       </c>
-      <c r="D25" s="5">
-        <f>C25*50+20</f>
+      <c r="D25" s="8">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="E25" s="6">
-        <f>(B25+D25)*1.6/7.4-1.99</f>
+      <c r="E25" s="9">
+        <f t="shared" si="1"/>
         <v>12.0640540540541</v>
       </c>
-      <c r="F25" s="6">
-        <f>(B25+D25)*1.6/7.4</f>
+      <c r="F25" s="10">
+        <f t="shared" si="3"/>
+        <v>14.4768648648649</v>
+      </c>
+      <c r="G25" s="9">
+        <f t="shared" si="2"/>
         <v>14.0540540540541</v>
       </c>
-      <c r="J25" s="7"/>
-    </row>
-    <row r="26" spans="10:10">
-      <c r="J26" s="7"/>
-    </row>
-    <row r="27" spans="10:10">
-      <c r="J27" s="7"/>
+      <c r="J25" s="12"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="8">
+        <v>6004</v>
+      </c>
+      <c r="B26" s="8">
+        <v>27</v>
+      </c>
+      <c r="C26" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="D26" s="8">
+        <f>C26*50+20</f>
+        <v>30</v>
+      </c>
+      <c r="E26" s="9">
+        <f t="shared" ref="E26:E43" si="4">(B26+D26)*1.6/7.4-1.99</f>
+        <v>10.3343243243243</v>
+      </c>
+      <c r="F26" s="10">
+        <f t="shared" si="3"/>
+        <v>12.4011891891892</v>
+      </c>
+      <c r="G26" s="9">
+        <f t="shared" ref="G26:G43" si="5">(B26+D26)*1.6/7.4</f>
+        <v>12.3243243243243</v>
+      </c>
+      <c r="J26" s="12"/>
+    </row>
+    <row r="27" spans="4:10">
+      <c r="D27" s="8">
+        <f t="shared" ref="D27:D43" si="6">C27*50+20</f>
+        <v>20</v>
+      </c>
+      <c r="E27" s="9">
+        <f t="shared" si="4"/>
+        <v>2.33432432432432</v>
+      </c>
+      <c r="F27" s="10">
+        <f t="shared" ref="F27:F43" si="7">E27*1.2</f>
+        <v>2.80118918918919</v>
+      </c>
+      <c r="G27" s="9">
+        <f t="shared" si="5"/>
+        <v>4.32432432432432</v>
+      </c>
+      <c r="J27" s="12"/>
+    </row>
+    <row r="28" spans="4:7">
+      <c r="D28" s="8">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="E28" s="9">
+        <f t="shared" si="4"/>
+        <v>2.33432432432432</v>
+      </c>
+      <c r="F28" s="10">
+        <f t="shared" si="7"/>
+        <v>2.80118918918919</v>
+      </c>
+      <c r="G28" s="9">
+        <f t="shared" si="5"/>
+        <v>4.32432432432432</v>
+      </c>
+    </row>
+    <row r="29" spans="4:7">
+      <c r="D29" s="8">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="E29" s="9">
+        <f t="shared" si="4"/>
+        <v>2.33432432432432</v>
+      </c>
+      <c r="F29" s="10">
+        <f t="shared" si="7"/>
+        <v>2.80118918918919</v>
+      </c>
+      <c r="G29" s="9">
+        <f t="shared" si="5"/>
+        <v>4.32432432432432</v>
+      </c>
+    </row>
+    <row r="30" spans="4:7">
+      <c r="D30" s="8">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="E30" s="9">
+        <f t="shared" si="4"/>
+        <v>2.33432432432432</v>
+      </c>
+      <c r="F30" s="10">
+        <f t="shared" si="7"/>
+        <v>2.80118918918919</v>
+      </c>
+      <c r="G30" s="9">
+        <f t="shared" si="5"/>
+        <v>4.32432432432432</v>
+      </c>
+    </row>
+    <row r="31" spans="4:7">
+      <c r="D31" s="8">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="E31" s="9">
+        <f t="shared" si="4"/>
+        <v>2.33432432432432</v>
+      </c>
+      <c r="F31" s="10">
+        <f t="shared" si="7"/>
+        <v>2.80118918918919</v>
+      </c>
+      <c r="G31" s="9">
+        <f t="shared" si="5"/>
+        <v>4.32432432432432</v>
+      </c>
+    </row>
+    <row r="32" spans="4:7">
+      <c r="D32" s="8">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="E32" s="9">
+        <f t="shared" si="4"/>
+        <v>2.33432432432432</v>
+      </c>
+      <c r="F32" s="10">
+        <f t="shared" si="7"/>
+        <v>2.80118918918919</v>
+      </c>
+      <c r="G32" s="9">
+        <f t="shared" si="5"/>
+        <v>4.32432432432432</v>
+      </c>
+    </row>
+    <row r="33" spans="4:7">
+      <c r="D33" s="8">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="E33" s="9">
+        <f t="shared" si="4"/>
+        <v>2.33432432432432</v>
+      </c>
+      <c r="F33" s="10">
+        <f t="shared" si="7"/>
+        <v>2.80118918918919</v>
+      </c>
+      <c r="G33" s="9">
+        <f t="shared" si="5"/>
+        <v>4.32432432432432</v>
+      </c>
+    </row>
+    <row r="34" spans="4:7">
+      <c r="D34" s="8">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="E34" s="9">
+        <f t="shared" si="4"/>
+        <v>2.33432432432432</v>
+      </c>
+      <c r="F34" s="10">
+        <f t="shared" si="7"/>
+        <v>2.80118918918919</v>
+      </c>
+      <c r="G34" s="9">
+        <f t="shared" si="5"/>
+        <v>4.32432432432432</v>
+      </c>
+    </row>
+    <row r="35" spans="4:7">
+      <c r="D35" s="8">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="E35" s="9">
+        <f t="shared" si="4"/>
+        <v>2.33432432432432</v>
+      </c>
+      <c r="F35" s="10">
+        <f t="shared" si="7"/>
+        <v>2.80118918918919</v>
+      </c>
+      <c r="G35" s="9">
+        <f t="shared" si="5"/>
+        <v>4.32432432432432</v>
+      </c>
+    </row>
+    <row r="36" spans="4:7">
+      <c r="D36" s="8">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="E36" s="9">
+        <f t="shared" si="4"/>
+        <v>2.33432432432432</v>
+      </c>
+      <c r="F36" s="10">
+        <f t="shared" si="7"/>
+        <v>2.80118918918919</v>
+      </c>
+      <c r="G36" s="9">
+        <f t="shared" si="5"/>
+        <v>4.32432432432432</v>
+      </c>
+    </row>
+    <row r="37" spans="4:7">
+      <c r="D37" s="8">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="E37" s="9">
+        <f t="shared" si="4"/>
+        <v>2.33432432432432</v>
+      </c>
+      <c r="F37" s="10">
+        <f t="shared" si="7"/>
+        <v>2.80118918918919</v>
+      </c>
+      <c r="G37" s="9">
+        <f t="shared" si="5"/>
+        <v>4.32432432432432</v>
+      </c>
+    </row>
+    <row r="38" spans="4:7">
+      <c r="D38" s="8">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="E38" s="9">
+        <f t="shared" si="4"/>
+        <v>2.33432432432432</v>
+      </c>
+      <c r="F38" s="10">
+        <f t="shared" si="7"/>
+        <v>2.80118918918919</v>
+      </c>
+      <c r="G38" s="9">
+        <f t="shared" si="5"/>
+        <v>4.32432432432432</v>
+      </c>
+    </row>
+    <row r="39" spans="4:7">
+      <c r="D39" s="8">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="E39" s="9">
+        <f t="shared" si="4"/>
+        <v>2.33432432432432</v>
+      </c>
+      <c r="F39" s="10">
+        <f t="shared" si="7"/>
+        <v>2.80118918918919</v>
+      </c>
+      <c r="G39" s="9">
+        <f t="shared" si="5"/>
+        <v>4.32432432432432</v>
+      </c>
+    </row>
+    <row r="40" spans="4:7">
+      <c r="D40" s="8">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="E40" s="9">
+        <f t="shared" si="4"/>
+        <v>2.33432432432432</v>
+      </c>
+      <c r="F40" s="10">
+        <f t="shared" si="7"/>
+        <v>2.80118918918919</v>
+      </c>
+      <c r="G40" s="9">
+        <f t="shared" si="5"/>
+        <v>4.32432432432432</v>
+      </c>
+    </row>
+    <row r="41" spans="4:7">
+      <c r="D41" s="8">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="E41" s="9">
+        <f t="shared" si="4"/>
+        <v>2.33432432432432</v>
+      </c>
+      <c r="F41" s="10">
+        <f t="shared" si="7"/>
+        <v>2.80118918918919</v>
+      </c>
+      <c r="G41" s="9">
+        <f t="shared" si="5"/>
+        <v>4.32432432432432</v>
+      </c>
+    </row>
+    <row r="42" spans="4:7">
+      <c r="D42" s="8">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="E42" s="9">
+        <f t="shared" si="4"/>
+        <v>2.33432432432432</v>
+      </c>
+      <c r="F42" s="10">
+        <f t="shared" si="7"/>
+        <v>2.80118918918919</v>
+      </c>
+      <c r="G42" s="9">
+        <f t="shared" si="5"/>
+        <v>4.32432432432432</v>
+      </c>
+    </row>
+    <row r="43" spans="4:7">
+      <c r="D43" s="8">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="E43" s="9">
+        <f t="shared" si="4"/>
+        <v>2.33432432432432</v>
+      </c>
+      <c r="F43" s="10">
+        <f t="shared" si="7"/>
+        <v>2.80118918918919</v>
+      </c>
+      <c r="G43" s="9">
+        <f t="shared" si="5"/>
+        <v>4.32432432432432</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -3790,209 +4396,349 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="1" customWidth="1"/>
-    <col min="6" max="12" width="17.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="20.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17.75" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9" style="1"/>
-    <col min="16" max="16" width="19.625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="16.125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="17.625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="23.875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="18.25" style="1" customWidth="1"/>
-    <col min="21" max="21" width="13.75" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="31.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.25" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="3" customWidth="1"/>
+    <col min="6" max="11" width="17.5" style="3" customWidth="1"/>
+    <col min="12" max="12" width="20.5" style="4" customWidth="1"/>
+    <col min="13" max="13" width="17.75" style="4" customWidth="1"/>
+    <col min="14" max="14" width="9" style="4"/>
+    <col min="15" max="15" width="19.625" style="4" customWidth="1"/>
+    <col min="16" max="16" width="16.125" style="4" customWidth="1"/>
+    <col min="17" max="17" width="17.625" style="4" customWidth="1"/>
+    <col min="18" max="18" width="23.875" style="4" customWidth="1"/>
+    <col min="19" max="19" width="18.25" style="4" customWidth="1"/>
+    <col min="20" max="20" width="23.25" style="4" customWidth="1"/>
+    <col min="21" max="21" width="11.25" style="4" customWidth="1"/>
+    <col min="22" max="23" width="9" style="4"/>
+    <col min="24" max="24" width="18.25" style="4" customWidth="1"/>
+    <col min="25" max="25" width="25.125" style="4" customWidth="1"/>
+    <col min="26" max="26" width="12" style="4" customWidth="1"/>
+    <col min="27" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C1" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="H1" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="I1" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="J1" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="K1" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="L1" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="M1" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="N1" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="O1" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="P1" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="Q1" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="R1" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="S1" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="T1" s="7" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:20">
       <c r="A2" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B2" s="1">
         <v>20.99</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="U2" s="4" t="s">
+    </row>
+    <row r="3" spans="3:20">
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="3" spans="3:21">
-      <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="T3" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="U3" s="4" t="s">
+    </row>
+    <row r="4" spans="1:27">
+      <c r="A4" s="1" t="s">
         <v>293</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="5" spans="8:27">
+      <c r="H5" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>336</v>
       </c>
     </row>
   </sheetData>

--- a/常用关键词库.xlsx
+++ b/常用关键词库.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13200" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="14295" windowHeight="12780" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="关键词" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361">
   <si>
     <t>类型</t>
   </si>
@@ -1068,6 +1068,78 @@
   </si>
   <si>
     <t>枯瘦</t>
+  </si>
+  <si>
+    <t>男装运动T恤</t>
+  </si>
+  <si>
+    <t>T-shirt</t>
+  </si>
+  <si>
+    <t>Jersey</t>
+  </si>
+  <si>
+    <t>Tee</t>
+  </si>
+  <si>
+    <t>Tank</t>
+  </si>
+  <si>
+    <t>Basic Funktions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sportswear </t>
+  </si>
+  <si>
+    <t>Funktionsshirt</t>
+  </si>
+  <si>
+    <t>Hemd/Trainingsshirt</t>
+  </si>
+  <si>
+    <t>Sportshirt</t>
+  </si>
+  <si>
+    <t>kurze Ärmel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funktional </t>
+  </si>
+  <si>
+    <t>V-Ausschnitt</t>
+  </si>
+  <si>
+    <t>Quick Dry</t>
+  </si>
+  <si>
+    <t>Short Sleeve/Kurzarm T-Shirt</t>
+  </si>
+  <si>
+    <t>球衣</t>
+  </si>
+  <si>
+    <t>功能打底</t>
+  </si>
+  <si>
+    <t>运动装</t>
+  </si>
+  <si>
+    <t>功能衬衫</t>
+  </si>
+  <si>
+    <t>衬衫/运动衬衫</t>
+  </si>
+  <si>
+    <t>运动t恤</t>
+  </si>
+  <si>
+    <t>短袖</t>
+  </si>
+  <si>
+    <t>V领</t>
+  </si>
+  <si>
+    <t>速干</t>
   </si>
 </sst>
 </file>
@@ -1075,10 +1147,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
@@ -1116,13 +1188,50 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -1134,21 +1243,9 @@
       <charset val="0"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
+      <color indexed="12"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -1158,20 +1255,6 @@
       <color indexed="20"/>
       <name val="宋体"/>
       <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1188,22 +1271,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
+      <color indexed="23"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color indexed="63"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -1215,49 +1292,26 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="10"/>
+      <b/>
+      <sz val="15"/>
+      <color indexed="62"/>
       <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="62"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
     </font>
   </fonts>
-  <fills count="27">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1303,7 +1357,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="31"/>
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1321,25 +1393,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="46"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
+        <fgColor indexed="25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1357,7 +1417,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
+        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1369,7 +1429,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="53"/>
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1381,18 +1441,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
+        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1417,6 +1471,32 @@
     </border>
     <border>
       <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="17"/>
       </left>
       <right style="thin">
@@ -1427,6 +1507,15 @@
       </top>
       <bottom style="thin">
         <color indexed="17"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1446,11 +1535,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
       <bottom style="double">
-        <color indexed="52"/>
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1479,36 +1598,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
-      <bottom style="double">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1519,15 +1608,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1536,10 +1616,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1548,137 +1628,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1694,22 +1774,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1736,10 +1810,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1748,7 +1822,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2243,141 +2317,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="25" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="26"/>
-      <c r="B3" s="27" t="s">
+      <c r="A3" s="24"/>
+      <c r="B3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="26"/>
-      <c r="B4" s="27" t="s">
+      <c r="A4" s="24"/>
+      <c r="B4" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="26"/>
-      <c r="B5" s="27" t="s">
+      <c r="A5" s="24"/>
+      <c r="B5" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="25" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="26"/>
-      <c r="B6" s="27" t="s">
+      <c r="A6" s="24"/>
+      <c r="B6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="25" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="25" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="26"/>
-      <c r="B8" s="27" t="s">
+      <c r="A8" s="24"/>
+      <c r="B8" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="25" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="26"/>
-      <c r="B9" s="27" t="s">
+      <c r="A9" s="24"/>
+      <c r="B9" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="25" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="26"/>
-      <c r="B10" s="27" t="s">
+      <c r="A10" s="24"/>
+      <c r="B10" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="26"/>
-      <c r="B11" s="27" t="s">
+      <c r="A11" s="24"/>
+      <c r="B11" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="25" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="25" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="13"/>
-      <c r="B13" s="27" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="25" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="13"/>
-      <c r="B14" s="27" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="25" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="13"/>
+      <c r="A15" s="11"/>
       <c r="B15" t="s">
         <v>30</v>
       </c>
@@ -2386,8 +2460,8 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="13"/>
-      <c r="B16" s="27" t="s">
+      <c r="A16" s="11"/>
+      <c r="B16" s="25" t="s">
         <v>32</v>
       </c>
       <c r="C16" t="s">
@@ -2395,7 +2469,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B17" t="s">
@@ -2406,7 +2480,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="13"/>
+      <c r="A18" s="11"/>
       <c r="B18" t="s">
         <v>37</v>
       </c>
@@ -2415,7 +2489,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="13"/>
+      <c r="A19" s="11"/>
       <c r="B19" t="s">
         <v>39</v>
       </c>
@@ -2424,7 +2498,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="13"/>
+      <c r="A20" s="11"/>
       <c r="B20" t="s">
         <v>41</v>
       </c>
@@ -2433,7 +2507,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="13"/>
+      <c r="A21" s="11"/>
       <c r="B21" t="s">
         <v>43</v>
       </c>
@@ -2442,7 +2516,7 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="13"/>
+      <c r="A22" s="11"/>
       <c r="B22" t="s">
         <v>45</v>
       </c>
@@ -2451,7 +2525,7 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="11" t="s">
         <v>47</v>
       </c>
       <c r="B23" t="s">
@@ -2462,7 +2536,7 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="13"/>
+      <c r="A24" s="11"/>
       <c r="B24" t="s">
         <v>50</v>
       </c>
@@ -2471,7 +2545,7 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="13"/>
+      <c r="A25" s="11"/>
       <c r="B25" t="s">
         <v>52</v>
       </c>
@@ -2480,7 +2554,7 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="13"/>
+      <c r="A26" s="11"/>
       <c r="B26" t="s">
         <v>54</v>
       </c>
@@ -2489,7 +2563,7 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="13"/>
+      <c r="A27" s="11"/>
       <c r="B27" t="s">
         <v>56</v>
       </c>
@@ -2498,22 +2572,22 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="13"/>
+      <c r="A28" s="11"/>
       <c r="B28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="29" ht="40.5" spans="1:3">
-      <c r="A29" s="13"/>
+      <c r="A29" s="11"/>
       <c r="B29" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="26" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="13"/>
+      <c r="A30" s="11"/>
       <c r="B30" t="s">
         <v>61</v>
       </c>
@@ -2530,7 +2604,7 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="11" t="s">
         <v>65</v>
       </c>
       <c r="B32" t="s">
@@ -2538,25 +2612,25 @@
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="13"/>
+      <c r="A33" s="11"/>
       <c r="B33" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="13"/>
+      <c r="A34" s="11"/>
       <c r="B34" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="13"/>
+      <c r="A35" s="11"/>
       <c r="B35" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="13"/>
+      <c r="A36" s="11"/>
       <c r="B36" t="s">
         <v>70</v>
       </c>
@@ -2570,7 +2644,7 @@
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="11" t="s">
         <v>73</v>
       </c>
       <c r="B38" t="s">
@@ -2578,25 +2652,25 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="13"/>
+      <c r="A39" s="11"/>
       <c r="B39" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="13"/>
+      <c r="A40" s="11"/>
       <c r="B40" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="13"/>
+      <c r="A41" s="11"/>
       <c r="B41" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="13"/>
+      <c r="A42" s="11"/>
       <c r="B42" t="s">
         <v>78</v>
       </c>
@@ -2610,7 +2684,7 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="11" t="s">
         <v>80</v>
       </c>
       <c r="B44" t="s">
@@ -2618,13 +2692,13 @@
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="13"/>
+      <c r="A45" s="11"/>
       <c r="B45" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="13"/>
+      <c r="A46" s="11"/>
       <c r="B46" t="s">
         <v>83</v>
       </c>
@@ -2668,18 +2742,18 @@
   </cols>
   <sheetData>
     <row r="1" ht="24.75" customHeight="1" spans="1:3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="11" t="s">
         <v>86</v>
       </c>
       <c r="B2" t="s">
@@ -2690,7 +2764,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="13"/>
+      <c r="A3" s="11"/>
       <c r="B3" t="s">
         <v>89</v>
       </c>
@@ -2699,7 +2773,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="13"/>
+      <c r="A4" s="11"/>
       <c r="B4" t="s">
         <v>91</v>
       </c>
@@ -2708,7 +2782,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="13"/>
+      <c r="A5" s="11"/>
       <c r="B5" t="s">
         <v>93</v>
       </c>
@@ -2717,7 +2791,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="13"/>
+      <c r="A6" s="11"/>
       <c r="B6" t="s">
         <v>95</v>
       </c>
@@ -2726,7 +2800,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="11" t="s">
         <v>97</v>
       </c>
       <c r="B7" t="s">
@@ -2737,7 +2811,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="13"/>
+      <c r="A8" s="11"/>
       <c r="B8" t="s">
         <v>100</v>
       </c>
@@ -2746,7 +2820,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="13"/>
+      <c r="A9" s="11"/>
       <c r="B9" t="s">
         <v>102</v>
       </c>
@@ -2755,7 +2829,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="13"/>
+      <c r="A10" s="11"/>
       <c r="B10" t="s">
         <v>104</v>
       </c>
@@ -2775,7 +2849,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B12" t="s">
@@ -2786,7 +2860,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="13"/>
+      <c r="A13" s="11"/>
       <c r="B13" t="s">
         <v>111</v>
       </c>
@@ -2795,7 +2869,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="13"/>
+      <c r="A14" s="11"/>
       <c r="B14" t="s">
         <v>113</v>
       </c>
@@ -2804,7 +2878,7 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="11" t="s">
         <v>115</v>
       </c>
       <c r="B15" t="s">
@@ -2815,7 +2889,7 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="13"/>
+      <c r="A16" s="11"/>
       <c r="B16" t="s">
         <v>118</v>
       </c>
@@ -2824,7 +2898,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="13"/>
+      <c r="A17" s="11"/>
       <c r="B17" t="s">
         <v>120</v>
       </c>
@@ -2850,7 +2924,7 @@
   <sheetPr/>
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -2861,236 +2935,236 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="13" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="2" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="15" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="3" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="16" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="4" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="17" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="5" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="17" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="6" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="17" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="7" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="18" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="15" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="9" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="17" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="10" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="17" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="11" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="15" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="15" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="20" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="14" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="20" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="14" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="14" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:3">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="21" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:3">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="21" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13" t="s">
+      <c r="B19" s="11"/>
+      <c r="C19" s="11" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C8:C10 C3">
@@ -3124,16 +3198,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="11" t="s">
         <v>181</v>
       </c>
       <c r="E1" t="s">
@@ -3141,131 +3215,131 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="11" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="11" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="11" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="11" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14" t="s">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="11" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="11" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="11" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="11" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="11" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B12" t="s">
@@ -3274,7 +3348,7 @@
       <c r="C12" t="s">
         <v>211</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="11" t="s">
         <v>189</v>
       </c>
       <c r="E12" t="s">
@@ -3282,14 +3356,14 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="13"/>
+      <c r="A13" s="11"/>
       <c r="B13" t="s">
         <v>213</v>
       </c>
       <c r="C13" t="s">
         <v>214</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="11" t="s">
         <v>192</v>
       </c>
       <c r="E13" t="s">
@@ -3297,14 +3371,14 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="13"/>
+      <c r="A14" s="11"/>
       <c r="B14" t="s">
         <v>215</v>
       </c>
       <c r="C14" t="s">
         <v>216</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="11" t="s">
         <v>195</v>
       </c>
       <c r="E14" t="s">
@@ -3312,14 +3386,14 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="13"/>
+      <c r="A15" s="11"/>
       <c r="B15" t="s">
         <v>218</v>
       </c>
       <c r="C15" t="s">
         <v>219</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="11" t="s">
         <v>198</v>
       </c>
       <c r="E15" t="s">
@@ -3343,1047 +3417,1056 @@
   <sheetPr/>
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11" style="8" customWidth="1"/>
-    <col min="2" max="4" width="9" style="8"/>
-    <col min="5" max="5" width="14.25" style="9" customWidth="1"/>
-    <col min="6" max="6" width="16.5" style="10" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="9"/>
-    <col min="8" max="9" width="9" style="11"/>
-    <col min="10" max="10" width="16" style="11"/>
-    <col min="11" max="16384" width="9" style="11"/>
+    <col min="1" max="1" width="11" style="1" customWidth="1"/>
+    <col min="2" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="14.25" style="7" customWidth="1"/>
+    <col min="6" max="6" width="16.5" style="8" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="7"/>
+    <col min="8" max="9" width="9" style="9"/>
+    <col min="10" max="10" width="16" style="9"/>
+    <col min="11" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="7" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="1">
         <v>43</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="1">
         <v>0.5</v>
       </c>
-      <c r="D2" s="8">
-        <f t="shared" ref="D2:D25" si="0">C2*50+20</f>
+      <c r="D2" s="1">
+        <f t="shared" ref="D2:D26" si="0">C2*50+20</f>
         <v>45</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="7">
         <f t="shared" ref="E2:E25" si="1">(B2+D2)*1.6/7.4-1.99</f>
         <v>17.037027027027</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="8">
         <f>E2*1.2</f>
         <v>20.4444324324324</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="7">
         <f t="shared" ref="G2:G25" si="2">(B2+D2)*1.6/7.4</f>
         <v>19.027027027027</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="1">
         <v>155</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="1">
         <v>1.2</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="1">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="7">
         <f t="shared" si="1"/>
         <v>48.8208108108108</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="8">
         <f t="shared" ref="F3:F26" si="3">E3*1.2</f>
         <v>58.584972972973</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="7">
         <f t="shared" si="2"/>
         <v>50.8108108108108</v>
       </c>
-      <c r="J3" s="12"/>
+      <c r="J3" s="10"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="1">
         <v>165</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="1">
         <v>1.4</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="1">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="7">
         <f t="shared" si="1"/>
         <v>53.1451351351351</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="8">
         <f t="shared" si="3"/>
         <v>63.7741621621621</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="7">
         <f t="shared" si="2"/>
         <v>55.1351351351351</v>
       </c>
-      <c r="J4" s="12"/>
+      <c r="J4" s="10"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="1">
         <v>169</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="1">
         <v>1.5</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="1">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <f t="shared" si="1"/>
         <v>55.0910810810811</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="8">
         <f t="shared" si="3"/>
         <v>66.1092972972973</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="7">
         <f t="shared" si="2"/>
         <v>57.0810810810811</v>
       </c>
-      <c r="J5" s="12"/>
+      <c r="J5" s="10"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="1">
         <v>90</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="1">
         <v>1.2</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="1">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="7">
         <f t="shared" si="1"/>
         <v>34.7667567567568</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="8">
         <f t="shared" si="3"/>
         <v>41.7201081081081</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="7">
         <f t="shared" si="2"/>
         <v>36.7567567567568</v>
       </c>
-      <c r="J6" s="12"/>
+      <c r="J6" s="10"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="1">
         <v>95</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="1">
         <v>1.2</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="1">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="7">
         <f t="shared" si="1"/>
         <v>35.8478378378378</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="8">
         <f t="shared" si="3"/>
         <v>43.0174054054054</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="7">
         <f t="shared" si="2"/>
         <v>37.8378378378378</v>
       </c>
-      <c r="J7" s="12"/>
+      <c r="J7" s="10"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="1">
         <v>99</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="1">
         <v>1.5</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="1">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="7">
         <f t="shared" si="1"/>
         <v>39.9559459459459</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="8">
         <f t="shared" si="3"/>
         <v>47.9471351351351</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="7">
         <f t="shared" si="2"/>
         <v>41.945945945946</v>
       </c>
-      <c r="J8" s="12"/>
+      <c r="J8" s="10"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="1">
         <v>50</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="1">
         <v>0.5</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="1">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="7">
         <f t="shared" si="1"/>
         <v>18.5505405405405</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="8">
         <f t="shared" si="3"/>
         <v>22.2606486486487</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="7">
         <f t="shared" si="2"/>
         <v>20.5405405405405</v>
       </c>
-      <c r="J9" s="12"/>
+      <c r="J9" s="10"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="1">
         <v>35</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="1">
         <v>0.2</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="7">
         <f t="shared" si="1"/>
         <v>12.0640540540541</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="8">
         <f t="shared" si="3"/>
         <v>14.4768648648649</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="7">
         <f t="shared" si="2"/>
         <v>14.0540540540541</v>
       </c>
-      <c r="J10" s="12"/>
+      <c r="J10" s="10"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="1">
         <v>20</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="1">
         <v>0.2</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="7">
         <f t="shared" si="1"/>
         <v>8.82081081081081</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="8">
         <f t="shared" si="3"/>
         <v>10.584972972973</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="7">
         <f t="shared" si="2"/>
         <v>10.8108108108108</v>
       </c>
-      <c r="J11" s="12"/>
+      <c r="J11" s="10"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="1">
         <v>35</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="1">
         <v>0.2</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="7">
         <f t="shared" si="1"/>
         <v>12.0640540540541</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="8">
         <f t="shared" si="3"/>
         <v>14.4768648648649</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="7">
         <f t="shared" si="2"/>
         <v>14.0540540540541</v>
       </c>
-      <c r="J12" s="12"/>
+      <c r="J12" s="10"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="1">
         <v>35</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="1">
         <v>0.3</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="7">
         <f t="shared" si="1"/>
         <v>13.1451351351351</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="8">
         <f t="shared" si="3"/>
         <v>15.7741621621622</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="7">
         <f t="shared" si="2"/>
         <v>15.1351351351351</v>
       </c>
-      <c r="J13" s="12"/>
+      <c r="J13" s="10"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="8">
+      <c r="A14" s="1">
         <v>160</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="1">
         <v>85</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="1">
         <v>1.8</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="1">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="7">
         <f t="shared" si="1"/>
         <v>40.1721621621622</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="8">
         <f t="shared" si="3"/>
         <v>48.2065945945946</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="7">
         <f t="shared" si="2"/>
         <v>42.1621621621622</v>
       </c>
-      <c r="J14" s="12"/>
+      <c r="J14" s="10"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="8">
+      <c r="A15" s="1">
         <v>200</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="1">
         <v>95</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="1">
         <v>2.2</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="1">
         <f t="shared" si="0"/>
         <v>130</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="7">
         <f t="shared" si="1"/>
         <v>46.6586486486486</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="8">
         <f t="shared" si="3"/>
         <v>55.9903783783784</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="7">
         <f t="shared" si="2"/>
         <v>48.6486486486486</v>
       </c>
-      <c r="J15" s="12"/>
+      <c r="J15" s="10"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="8">
+      <c r="A16" s="1">
         <v>220</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="1">
         <v>105</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="1">
         <v>2.3</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="1">
         <f t="shared" si="0"/>
         <v>135</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="7">
         <f t="shared" si="1"/>
         <v>49.9018918918919</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="8">
         <f t="shared" si="3"/>
         <v>59.8822702702703</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="7">
         <f t="shared" si="2"/>
         <v>51.8918918918919</v>
       </c>
-      <c r="J16" s="12"/>
+      <c r="J16" s="10"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="8">
+      <c r="A17" s="1">
         <v>160</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="1">
         <v>116</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="1">
         <v>1.5</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="1">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="7">
         <f t="shared" si="1"/>
         <v>43.6316216216216</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="8">
         <f t="shared" si="3"/>
         <v>52.3579459459459</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="7">
         <f t="shared" si="2"/>
         <v>45.6216216216216</v>
       </c>
-      <c r="J17" s="12"/>
+      <c r="J17" s="10"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="8">
+      <c r="A18" s="1">
         <v>200</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="1">
         <v>152</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="1">
         <v>2</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="1">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="7">
         <f t="shared" si="1"/>
         <v>56.8208108108108</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="8">
         <f t="shared" si="3"/>
         <v>68.184972972973</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="7">
         <f t="shared" si="2"/>
         <v>58.8108108108108</v>
       </c>
-      <c r="J18" s="12"/>
+      <c r="J18" s="10"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="8">
+      <c r="A19" s="1">
         <v>220</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="1">
         <v>179</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="1">
         <v>2.1</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="1">
         <f t="shared" si="0"/>
         <v>125</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="7">
         <f t="shared" si="1"/>
         <v>63.7397297297297</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="8">
         <f t="shared" si="3"/>
         <v>76.4876756756757</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="7">
         <f t="shared" si="2"/>
         <v>65.7297297297297</v>
       </c>
-      <c r="J19" s="12"/>
+      <c r="J19" s="10"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="1">
         <v>12</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="1">
         <v>0.1</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="7">
         <f t="shared" si="1"/>
         <v>6.01</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="8">
         <f t="shared" si="3"/>
         <v>7.212</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="7">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="J20" s="12"/>
+      <c r="J20" s="10"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="1">
         <v>22</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="1">
         <v>0.2</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="7">
         <f t="shared" si="1"/>
         <v>9.25324324324324</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="8">
         <f t="shared" si="3"/>
         <v>11.1038918918919</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="7">
         <f t="shared" si="2"/>
         <v>11.2432432432432</v>
       </c>
-      <c r="J21" s="12"/>
+      <c r="J21" s="10"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="8">
+      <c r="A22" s="1">
         <v>1022</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="1">
         <v>32</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="1">
         <v>0.2</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="7">
         <f t="shared" si="1"/>
         <v>11.4154054054054</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="8">
         <f t="shared" si="3"/>
         <v>13.6984864864865</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="7">
         <f t="shared" si="2"/>
         <v>13.4054054054054</v>
       </c>
-      <c r="J22" s="12"/>
+      <c r="J22" s="10"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="8">
+      <c r="A23" s="1">
         <v>4050</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="1">
         <v>30</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="1">
         <v>0.2</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="7">
         <f t="shared" si="1"/>
         <v>10.982972972973</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="8">
         <f t="shared" si="3"/>
         <v>13.1795675675676</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="7">
         <f t="shared" si="2"/>
         <v>12.972972972973</v>
       </c>
-      <c r="J23" s="12"/>
+      <c r="J23" s="10"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="8">
+      <c r="A24" s="1">
         <v>6020</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="1">
         <v>35</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="1">
         <v>0.2</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="7">
         <f t="shared" si="1"/>
         <v>12.0640540540541</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="8">
         <f t="shared" si="3"/>
         <v>14.4768648648649</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="7">
         <f t="shared" si="2"/>
         <v>14.0540540540541</v>
       </c>
-      <c r="J24" s="12"/>
+      <c r="J24" s="10"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="8">
+      <c r="A25" s="1">
         <v>1059</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="1">
         <v>35</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="1">
         <v>0.2</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="7">
         <f t="shared" si="1"/>
         <v>12.0640540540541</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="8">
         <f t="shared" si="3"/>
         <v>14.4768648648649</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="7">
         <f t="shared" si="2"/>
         <v>14.0540540540541</v>
       </c>
-      <c r="J25" s="12"/>
+      <c r="J25" s="10"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="8">
+      <c r="A26" s="1">
         <v>6004</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="1">
         <v>27</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="1">
         <v>0.2</v>
       </c>
-      <c r="D26" s="8">
-        <f>C26*50+20</f>
+      <c r="D26" s="1">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="7">
         <f t="shared" ref="E26:E43" si="4">(B26+D26)*1.6/7.4-1.99</f>
         <v>10.3343243243243</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="8">
         <f t="shared" si="3"/>
         <v>12.4011891891892</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="7">
         <f t="shared" ref="G26:G43" si="5">(B26+D26)*1.6/7.4</f>
         <v>12.3243243243243</v>
       </c>
-      <c r="J26" s="12"/>
-    </row>
-    <row r="27" spans="4:10">
-      <c r="D27" s="8">
+      <c r="J26" s="10"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1">
+        <v>1043</v>
+      </c>
+      <c r="B27" s="1">
+        <v>29</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D27" s="1">
         <f t="shared" ref="D27:D43" si="6">C27*50+20</f>
+        <v>30</v>
+      </c>
+      <c r="E27" s="7">
+        <f t="shared" si="4"/>
+        <v>10.7667567567568</v>
+      </c>
+      <c r="F27" s="8">
+        <f t="shared" ref="F27:F43" si="7">E27*1.2</f>
+        <v>12.9201081081081</v>
+      </c>
+      <c r="G27" s="7">
+        <f t="shared" si="5"/>
+        <v>12.7567567567568</v>
+      </c>
+      <c r="J27" s="10"/>
+    </row>
+    <row r="28" spans="4:7">
+      <c r="D28" s="1">
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E28" s="7">
         <f t="shared" si="4"/>
         <v>2.33432432432432</v>
       </c>
-      <c r="F27" s="10">
-        <f t="shared" ref="F27:F43" si="7">E27*1.2</f>
+      <c r="F28" s="8">
+        <f t="shared" si="7"/>
         <v>2.80118918918919</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G28" s="7">
         <f t="shared" si="5"/>
         <v>4.32432432432432</v>
       </c>
-      <c r="J27" s="12"/>
-    </row>
-    <row r="28" spans="4:7">
-      <c r="D28" s="8">
+    </row>
+    <row r="29" spans="4:7">
+      <c r="D29" s="1">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E29" s="7">
         <f t="shared" si="4"/>
         <v>2.33432432432432</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F29" s="8">
         <f t="shared" si="7"/>
         <v>2.80118918918919</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G29" s="7">
         <f t="shared" si="5"/>
         <v>4.32432432432432</v>
       </c>
     </row>
-    <row r="29" spans="4:7">
-      <c r="D29" s="8">
+    <row r="30" spans="4:7">
+      <c r="D30" s="1">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E30" s="7">
         <f t="shared" si="4"/>
         <v>2.33432432432432</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F30" s="8">
         <f t="shared" si="7"/>
         <v>2.80118918918919</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G30" s="7">
         <f t="shared" si="5"/>
         <v>4.32432432432432</v>
       </c>
     </row>
-    <row r="30" spans="4:7">
-      <c r="D30" s="8">
+    <row r="31" spans="4:7">
+      <c r="D31" s="1">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E31" s="7">
         <f t="shared" si="4"/>
         <v>2.33432432432432</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F31" s="8">
         <f t="shared" si="7"/>
         <v>2.80118918918919</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G31" s="7">
         <f t="shared" si="5"/>
         <v>4.32432432432432</v>
       </c>
     </row>
-    <row r="31" spans="4:7">
-      <c r="D31" s="8">
+    <row r="32" spans="4:7">
+      <c r="D32" s="1">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E32" s="7">
         <f t="shared" si="4"/>
         <v>2.33432432432432</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F32" s="8">
         <f t="shared" si="7"/>
         <v>2.80118918918919</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G32" s="7">
         <f t="shared" si="5"/>
         <v>4.32432432432432</v>
       </c>
     </row>
-    <row r="32" spans="4:7">
-      <c r="D32" s="8">
+    <row r="33" spans="4:7">
+      <c r="D33" s="1">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E33" s="7">
         <f t="shared" si="4"/>
         <v>2.33432432432432</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F33" s="8">
         <f t="shared" si="7"/>
         <v>2.80118918918919</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G33" s="7">
         <f t="shared" si="5"/>
         <v>4.32432432432432</v>
       </c>
     </row>
-    <row r="33" spans="4:7">
-      <c r="D33" s="8">
+    <row r="34" spans="4:7">
+      <c r="D34" s="1">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E34" s="7">
         <f t="shared" si="4"/>
         <v>2.33432432432432</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F34" s="8">
         <f t="shared" si="7"/>
         <v>2.80118918918919</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G34" s="7">
         <f t="shared" si="5"/>
         <v>4.32432432432432</v>
       </c>
     </row>
-    <row r="34" spans="4:7">
-      <c r="D34" s="8">
+    <row r="35" spans="4:7">
+      <c r="D35" s="1">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E35" s="7">
         <f t="shared" si="4"/>
         <v>2.33432432432432</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F35" s="8">
         <f t="shared" si="7"/>
         <v>2.80118918918919</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G35" s="7">
         <f t="shared" si="5"/>
         <v>4.32432432432432</v>
       </c>
     </row>
-    <row r="35" spans="4:7">
-      <c r="D35" s="8">
+    <row r="36" spans="4:7">
+      <c r="D36" s="1">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E36" s="7">
         <f t="shared" si="4"/>
         <v>2.33432432432432</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F36" s="8">
         <f t="shared" si="7"/>
         <v>2.80118918918919</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G36" s="7">
         <f t="shared" si="5"/>
         <v>4.32432432432432</v>
       </c>
     </row>
-    <row r="36" spans="4:7">
-      <c r="D36" s="8">
+    <row r="37" spans="4:7">
+      <c r="D37" s="1">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E37" s="7">
         <f t="shared" si="4"/>
         <v>2.33432432432432</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F37" s="8">
         <f t="shared" si="7"/>
         <v>2.80118918918919</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G37" s="7">
         <f t="shared" si="5"/>
         <v>4.32432432432432</v>
       </c>
     </row>
-    <row r="37" spans="4:7">
-      <c r="D37" s="8">
+    <row r="38" spans="4:7">
+      <c r="D38" s="1">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E38" s="7">
         <f t="shared" si="4"/>
         <v>2.33432432432432</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F38" s="8">
         <f t="shared" si="7"/>
         <v>2.80118918918919</v>
       </c>
-      <c r="G37" s="9">
+      <c r="G38" s="7">
         <f t="shared" si="5"/>
         <v>4.32432432432432</v>
       </c>
     </row>
-    <row r="38" spans="4:7">
-      <c r="D38" s="8">
+    <row r="39" spans="4:7">
+      <c r="D39" s="1">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E39" s="7">
         <f t="shared" si="4"/>
         <v>2.33432432432432</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F39" s="8">
         <f t="shared" si="7"/>
         <v>2.80118918918919</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G39" s="7">
         <f t="shared" si="5"/>
         <v>4.32432432432432</v>
       </c>
     </row>
-    <row r="39" spans="4:7">
-      <c r="D39" s="8">
+    <row r="40" spans="4:7">
+      <c r="D40" s="1">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E40" s="7">
         <f t="shared" si="4"/>
         <v>2.33432432432432</v>
       </c>
-      <c r="F39" s="10">
+      <c r="F40" s="8">
         <f t="shared" si="7"/>
         <v>2.80118918918919</v>
       </c>
-      <c r="G39" s="9">
+      <c r="G40" s="7">
         <f t="shared" si="5"/>
         <v>4.32432432432432</v>
       </c>
     </row>
-    <row r="40" spans="4:7">
-      <c r="D40" s="8">
+    <row r="41" spans="4:7">
+      <c r="D41" s="1">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E41" s="7">
         <f t="shared" si="4"/>
         <v>2.33432432432432</v>
       </c>
-      <c r="F40" s="10">
+      <c r="F41" s="8">
         <f t="shared" si="7"/>
         <v>2.80118918918919</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G41" s="7">
         <f t="shared" si="5"/>
         <v>4.32432432432432</v>
       </c>
     </row>
-    <row r="41" spans="4:7">
-      <c r="D41" s="8">
+    <row r="42" spans="4:7">
+      <c r="D42" s="1">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E42" s="7">
         <f t="shared" si="4"/>
         <v>2.33432432432432</v>
       </c>
-      <c r="F41" s="10">
+      <c r="F42" s="8">
         <f t="shared" si="7"/>
         <v>2.80118918918919</v>
       </c>
-      <c r="G41" s="9">
+      <c r="G42" s="7">
         <f t="shared" si="5"/>
         <v>4.32432432432432</v>
       </c>
     </row>
-    <row r="42" spans="4:7">
-      <c r="D42" s="8">
+    <row r="43" spans="4:7">
+      <c r="D43" s="1">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E43" s="7">
         <f t="shared" si="4"/>
         <v>2.33432432432432</v>
       </c>
-      <c r="F42" s="10">
+      <c r="F43" s="8">
         <f t="shared" si="7"/>
         <v>2.80118918918919</v>
       </c>
-      <c r="G42" s="9">
-        <f t="shared" si="5"/>
-        <v>4.32432432432432</v>
-      </c>
-    </row>
-    <row r="43" spans="4:7">
-      <c r="D43" s="8">
-        <f t="shared" si="6"/>
-        <v>20</v>
-      </c>
-      <c r="E43" s="9">
-        <f t="shared" si="4"/>
-        <v>2.33432432432432</v>
-      </c>
-      <c r="F43" s="10">
-        <f t="shared" si="7"/>
-        <v>2.80118918918919</v>
-      </c>
-      <c r="G43" s="9">
+      <c r="G43" s="7">
         <f t="shared" si="5"/>
         <v>4.32432432432432</v>
       </c>
@@ -4398,25 +4481,29 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA5"/>
+  <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
     <col min="3" max="3" width="31.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.25" style="3" customWidth="1"/>
     <col min="5" max="5" width="15.25" style="3" customWidth="1"/>
-    <col min="6" max="11" width="17.5" style="3" customWidth="1"/>
+    <col min="6" max="7" width="17.5" style="3" customWidth="1"/>
+    <col min="8" max="8" width="18" style="3" customWidth="1"/>
+    <col min="9" max="9" width="17.5" style="3" customWidth="1"/>
+    <col min="10" max="10" width="30.125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="17.5" style="3" customWidth="1"/>
     <col min="12" max="12" width="20.5" style="4" customWidth="1"/>
     <col min="13" max="13" width="17.75" style="4" customWidth="1"/>
-    <col min="14" max="14" width="9" style="4"/>
+    <col min="14" max="14" width="13.5" style="4" customWidth="1"/>
     <col min="15" max="15" width="19.625" style="4" customWidth="1"/>
-    <col min="16" max="16" width="16.125" style="4" customWidth="1"/>
+    <col min="16" max="16" width="28.75" style="4" customWidth="1"/>
     <col min="17" max="17" width="17.625" style="4" customWidth="1"/>
     <col min="18" max="18" width="23.875" style="4" customWidth="1"/>
     <col min="19" max="19" width="18.25" style="4" customWidth="1"/>
@@ -4436,58 +4523,58 @@
       <c r="B1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="4" t="s">
         <v>261</v>
       </c>
     </row>
@@ -4498,109 +4585,104 @@
       <c r="B2" s="1">
         <v>20.99</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="S2" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="T2" s="4" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="3" spans="3:20">
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6" t="s">
+    <row r="3" spans="8:20">
+      <c r="H3" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="R3" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="S3" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="T3" s="4" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:27">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="5" t="s">
         <v>293</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -4679,7 +4761,8 @@
         <v>318</v>
       </c>
     </row>
-    <row r="5" spans="8:27">
+    <row r="5" spans="1:27">
+      <c r="A5" s="6"/>
       <c r="H5" s="3" t="s">
         <v>319</v>
       </c>
@@ -4741,9 +4824,89 @@
         <v>336</v>
       </c>
     </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="7" spans="4:16">
+      <c r="D7" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>358</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/常用关键词库.xlsx
+++ b/常用关键词库.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13200" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="20400" windowHeight="10005" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="关键词" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <definedName name="recommended_browse_nodes_">'[1]Dropdown Lists'!$A$4</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst/>
 </workbook>
 </file>
 
@@ -36,6 +37,7 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -56,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338">
   <si>
     <t>类型</t>
   </si>
@@ -785,6 +787,9 @@
     <t>米多运动裤</t>
   </si>
   <si>
+    <t>骷髅头被套160</t>
+  </si>
+  <si>
     <t>品名</t>
   </si>
   <si>
@@ -887,7 +892,7 @@
     <t>Unisex Mode</t>
   </si>
   <si>
-    <t>Liebhaber Design</t>
+    <t xml:space="preserve"> SW</t>
   </si>
   <si>
     <t>mit Reißverschluss</t>
@@ -1075,10 +1080,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
@@ -1116,67 +1121,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -1188,17 +1139,23 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color indexed="12"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color indexed="62"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1215,8 +1172,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color indexed="10"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -1229,12 +1201,45 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="27">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1243,43 +1248,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.4"/>
+        <fgColor indexed="29"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.4"/>
+        <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.6"/>
+        <fgColor indexed="44"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.1"/>
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1303,25 +1290,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="31"/>
+        <fgColor indexed="25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
+        <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1339,25 +1314,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1369,25 +1350,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
+        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1402,32 +1365,30 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="17"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="17"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="17"/>
+        <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="17"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1448,32 +1409,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
       <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color indexed="49"/>
       </bottom>
       <diagonal/>
@@ -1490,6 +1429,39 @@
       </top>
       <bottom style="thin">
         <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1511,20 +1483,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1533,152 +1494,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1694,22 +1655,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1736,10 +1685,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1748,7 +1697,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1767,60 +1721,59 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="强调文字颜色 4" xfId="4"/>
+    <cellStyle name="百分比" xfId="5" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="6" builtinId="7"/>
+    <cellStyle name="标题" xfId="7"/>
+    <cellStyle name="输入" xfId="8"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="9"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="10"/>
+    <cellStyle name="差" xfId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="12"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
+    <cellStyle name="注释" xfId="15"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="16"/>
+    <cellStyle name="标题 4" xfId="17"/>
+    <cellStyle name="警告文本" xfId="18"/>
+    <cellStyle name="解释性文本" xfId="19"/>
+    <cellStyle name="标题 1" xfId="20"/>
+    <cellStyle name="标题 2" xfId="21"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="22"/>
+    <cellStyle name="标题 3" xfId="23"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="24"/>
+    <cellStyle name="输出" xfId="25"/>
+    <cellStyle name="计算" xfId="26"/>
+    <cellStyle name="检查单元格" xfId="27"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="28"/>
+    <cellStyle name="强调文字颜色 2" xfId="29"/>
+    <cellStyle name="链接单元格" xfId="30"/>
+    <cellStyle name="汇总" xfId="31"/>
+    <cellStyle name="好" xfId="32"/>
+    <cellStyle name="适中" xfId="33"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="34"/>
+    <cellStyle name="强调文字颜色 1" xfId="35"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="36"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="37"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="38"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="39"/>
+    <cellStyle name="强调文字颜色 3" xfId="40"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42"/>
+    <cellStyle name="强调文字颜色 5" xfId="43"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45"/>
+    <cellStyle name="强调文字颜色 6" xfId="46"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
       <font>
         <name val="Calibri"/>
-        <scheme val="none"/>
         <family val="2"/>
         <b val="0"/>
         <i val="0"/>
@@ -1828,7 +1781,7 @@
         <color indexed="8"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill>
           <fgColor indexed="10"/>
           <bgColor indexed="9"/>
         </patternFill>
@@ -1849,12 +1802,6 @@
       </border>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1947,71 +1894,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2223,11 +2170,12 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:C47"/>
   <sheetViews>
@@ -2243,141 +2191,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="24" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="26"/>
-      <c r="B3" s="27" t="s">
+      <c r="A3" s="23"/>
+      <c r="B3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="24" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="26"/>
-      <c r="B4" s="27" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="24" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="26"/>
-      <c r="B5" s="27" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="24" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="26"/>
-      <c r="B6" s="27" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="24" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="24" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="26"/>
-      <c r="B8" s="27" t="s">
+      <c r="A8" s="23"/>
+      <c r="B8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="24" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="26"/>
-      <c r="B9" s="27" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="24" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="26"/>
-      <c r="B10" s="27" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="24" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="26"/>
-      <c r="B11" s="27" t="s">
+      <c r="A11" s="23"/>
+      <c r="B11" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="24" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="24" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="13"/>
-      <c r="B13" s="27" t="s">
+      <c r="A13" s="9"/>
+      <c r="B13" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="13"/>
-      <c r="B14" s="27" t="s">
+      <c r="A14" s="9"/>
+      <c r="B14" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="24" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="13"/>
+      <c r="A15" s="9"/>
       <c r="B15" t="s">
         <v>30</v>
       </c>
@@ -2386,8 +2334,8 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="13"/>
-      <c r="B16" s="27" t="s">
+      <c r="A16" s="9"/>
+      <c r="B16" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C16" t="s">
@@ -2395,7 +2343,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B17" t="s">
@@ -2406,7 +2354,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="13"/>
+      <c r="A18" s="9"/>
       <c r="B18" t="s">
         <v>37</v>
       </c>
@@ -2415,7 +2363,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="13"/>
+      <c r="A19" s="9"/>
       <c r="B19" t="s">
         <v>39</v>
       </c>
@@ -2424,7 +2372,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="13"/>
+      <c r="A20" s="9"/>
       <c r="B20" t="s">
         <v>41</v>
       </c>
@@ -2433,7 +2381,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="13"/>
+      <c r="A21" s="9"/>
       <c r="B21" t="s">
         <v>43</v>
       </c>
@@ -2442,7 +2390,7 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="13"/>
+      <c r="A22" s="9"/>
       <c r="B22" t="s">
         <v>45</v>
       </c>
@@ -2451,7 +2399,7 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="9" t="s">
         <v>47</v>
       </c>
       <c r="B23" t="s">
@@ -2462,7 +2410,7 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="13"/>
+      <c r="A24" s="9"/>
       <c r="B24" t="s">
         <v>50</v>
       </c>
@@ -2471,7 +2419,7 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="13"/>
+      <c r="A25" s="9"/>
       <c r="B25" t="s">
         <v>52</v>
       </c>
@@ -2480,7 +2428,7 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="13"/>
+      <c r="A26" s="9"/>
       <c r="B26" t="s">
         <v>54</v>
       </c>
@@ -2489,7 +2437,7 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="13"/>
+      <c r="A27" s="9"/>
       <c r="B27" t="s">
         <v>56</v>
       </c>
@@ -2498,22 +2446,22 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="13"/>
+      <c r="A28" s="9"/>
       <c r="B28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="29" ht="40.5" spans="1:3">
-      <c r="A29" s="13"/>
+      <c r="A29" s="9"/>
       <c r="B29" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="25" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="13"/>
+      <c r="A30" s="9"/>
       <c r="B30" t="s">
         <v>61</v>
       </c>
@@ -2530,7 +2478,7 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="9" t="s">
         <v>65</v>
       </c>
       <c r="B32" t="s">
@@ -2538,25 +2486,25 @@
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="13"/>
+      <c r="A33" s="9"/>
       <c r="B33" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="13"/>
+      <c r="A34" s="9"/>
       <c r="B34" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="13"/>
+      <c r="A35" s="9"/>
       <c r="B35" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="13"/>
+      <c r="A36" s="9"/>
       <c r="B36" t="s">
         <v>70</v>
       </c>
@@ -2570,7 +2518,7 @@
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="9" t="s">
         <v>73</v>
       </c>
       <c r="B38" t="s">
@@ -2578,25 +2526,25 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="13"/>
+      <c r="A39" s="9"/>
       <c r="B39" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="13"/>
+      <c r="A40" s="9"/>
       <c r="B40" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="13"/>
+      <c r="A41" s="9"/>
       <c r="B41" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="13"/>
+      <c r="A42" s="9"/>
       <c r="B42" t="s">
         <v>78</v>
       </c>
@@ -2610,7 +2558,7 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="9" t="s">
         <v>80</v>
       </c>
       <c r="B44" t="s">
@@ -2618,13 +2566,13 @@
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="13"/>
+      <c r="A45" s="9"/>
       <c r="B45" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="13"/>
+      <c r="A46" s="9"/>
       <c r="B46" t="s">
         <v>83</v>
       </c>
@@ -2652,7 +2600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:C17"/>
   <sheetViews>
@@ -2668,18 +2616,18 @@
   </cols>
   <sheetData>
     <row r="1" ht="24.75" customHeight="1" spans="1:3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="9" t="s">
         <v>86</v>
       </c>
       <c r="B2" t="s">
@@ -2690,7 +2638,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="13"/>
+      <c r="A3" s="9"/>
       <c r="B3" t="s">
         <v>89</v>
       </c>
@@ -2699,7 +2647,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="13"/>
+      <c r="A4" s="9"/>
       <c r="B4" t="s">
         <v>91</v>
       </c>
@@ -2708,7 +2656,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="13"/>
+      <c r="A5" s="9"/>
       <c r="B5" t="s">
         <v>93</v>
       </c>
@@ -2717,7 +2665,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="13"/>
+      <c r="A6" s="9"/>
       <c r="B6" t="s">
         <v>95</v>
       </c>
@@ -2726,7 +2674,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="9" t="s">
         <v>97</v>
       </c>
       <c r="B7" t="s">
@@ -2737,7 +2685,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="13"/>
+      <c r="A8" s="9"/>
       <c r="B8" t="s">
         <v>100</v>
       </c>
@@ -2746,7 +2694,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="13"/>
+      <c r="A9" s="9"/>
       <c r="B9" t="s">
         <v>102</v>
       </c>
@@ -2755,7 +2703,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="13"/>
+      <c r="A10" s="9"/>
       <c r="B10" t="s">
         <v>104</v>
       </c>
@@ -2775,7 +2723,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B12" t="s">
@@ -2786,7 +2734,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="13"/>
+      <c r="A13" s="9"/>
       <c r="B13" t="s">
         <v>111</v>
       </c>
@@ -2795,7 +2743,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="13"/>
+      <c r="A14" s="9"/>
       <c r="B14" t="s">
         <v>113</v>
       </c>
@@ -2804,7 +2752,7 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="9" t="s">
         <v>115</v>
       </c>
       <c r="B15" t="s">
@@ -2815,7 +2763,7 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="13"/>
+      <c r="A16" s="9"/>
       <c r="B16" t="s">
         <v>118</v>
       </c>
@@ -2824,7 +2772,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="13"/>
+      <c r="A17" s="9"/>
       <c r="B17" t="s">
         <v>120</v>
       </c>
@@ -2846,12 +2794,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2861,236 +2809,236 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="11" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="2" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="13" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="3" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="14" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="4" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="15" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="5" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="15" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="6" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="15" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="7" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="16" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="13" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="9" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="15" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="10" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="15" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="11" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="13" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="13" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="18" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="14" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="18" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="12" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="19" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:3">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="20" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:3">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="20" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13" t="s">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C8:C10 C3">
@@ -3108,7 +3056,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E15"/>
   <sheetViews>
@@ -3124,16 +3072,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="9" t="s">
         <v>181</v>
       </c>
       <c r="E1" t="s">
@@ -3141,131 +3089,131 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="9" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="9" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="9" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="9" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="9" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="9" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="9" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="9" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="9" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="9" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B12" t="s">
@@ -3274,7 +3222,7 @@
       <c r="C12" t="s">
         <v>211</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="9" t="s">
         <v>189</v>
       </c>
       <c r="E12" t="s">
@@ -3282,14 +3230,14 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="13"/>
+      <c r="A13" s="9"/>
       <c r="B13" t="s">
         <v>213</v>
       </c>
       <c r="C13" t="s">
         <v>214</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E13" t="s">
@@ -3297,14 +3245,14 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="13"/>
+      <c r="A14" s="9"/>
       <c r="B14" t="s">
         <v>215</v>
       </c>
       <c r="C14" t="s">
         <v>216</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="9" t="s">
         <v>195</v>
       </c>
       <c r="E14" t="s">
@@ -3312,14 +3260,14 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="13"/>
+      <c r="A15" s="9"/>
       <c r="B15" t="s">
         <v>218</v>
       </c>
       <c r="C15" t="s">
         <v>219</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="9" t="s">
         <v>198</v>
       </c>
       <c r="E15" t="s">
@@ -3339,1052 +3287,1079 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11" style="8" customWidth="1"/>
-    <col min="2" max="4" width="9" style="8"/>
-    <col min="5" max="5" width="14.25" style="9" customWidth="1"/>
-    <col min="6" max="6" width="16.5" style="10" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="9"/>
-    <col min="8" max="9" width="9" style="11"/>
-    <col min="10" max="10" width="16" style="11"/>
-    <col min="11" max="16384" width="9" style="11"/>
+    <col min="1" max="1" width="21.125" style="1" customWidth="1"/>
+    <col min="2" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="14.25" style="5" customWidth="1"/>
+    <col min="6" max="6" width="16.5" style="6" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="5"/>
+    <col min="8" max="9" width="9" style="7"/>
+    <col min="10" max="10" width="16" style="7"/>
+    <col min="11" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="5" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="1">
         <v>43</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="1">
         <v>0.5</v>
       </c>
-      <c r="D2" s="8">
-        <f t="shared" ref="D2:D25" si="0">C2*50+20</f>
+      <c r="D2" s="1">
+        <f t="shared" ref="D2:D26" si="0">C2*50+20</f>
         <v>45</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="5">
         <f t="shared" ref="E2:E25" si="1">(B2+D2)*1.6/7.4-1.99</f>
         <v>17.037027027027</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="6">
         <f>E2*1.2</f>
         <v>20.4444324324324</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="5">
         <f t="shared" ref="G2:G25" si="2">(B2+D2)*1.6/7.4</f>
         <v>19.027027027027</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="1">
         <v>155</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="1">
         <v>1.2</v>
       </c>
-      <c r="D3" s="8">
-        <f t="shared" si="0"/>
+      <c r="D3" s="1">
+        <f>C3*50+20</f>
         <v>80</v>
       </c>
-      <c r="E3" s="9">
-        <f t="shared" si="1"/>
+      <c r="E3" s="5">
+        <f>(B3+D3)*1.6/7.4-1.99</f>
         <v>48.8208108108108</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="6">
         <f t="shared" ref="F3:F26" si="3">E3*1.2</f>
         <v>58.584972972973</v>
       </c>
-      <c r="G3" s="9">
-        <f t="shared" si="2"/>
+      <c r="G3" s="5">
+        <f>(B3+D3)*1.6/7.4</f>
         <v>50.8108108108108</v>
       </c>
-      <c r="J3" s="12"/>
+      <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="1">
         <v>165</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="1">
         <v>1.4</v>
       </c>
-      <c r="D4" s="8">
-        <f t="shared" si="0"/>
+      <c r="D4" s="1">
+        <f>C4*50+20</f>
         <v>90</v>
       </c>
-      <c r="E4" s="9">
-        <f t="shared" si="1"/>
+      <c r="E4" s="5">
+        <f>(B4+D4)*1.6/7.4-1.99</f>
         <v>53.1451351351351</v>
       </c>
-      <c r="F4" s="10">
-        <f t="shared" si="3"/>
+      <c r="F4" s="6">
+        <f>E4*1.2</f>
         <v>63.7741621621621</v>
       </c>
-      <c r="G4" s="9">
-        <f t="shared" si="2"/>
+      <c r="G4" s="5">
+        <f>(B4+D4)*1.6/7.4</f>
         <v>55.1351351351351</v>
       </c>
-      <c r="J4" s="12"/>
+      <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="1">
         <v>169</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="1">
         <v>1.5</v>
       </c>
-      <c r="D5" s="8">
-        <f t="shared" si="0"/>
+      <c r="D5" s="1">
+        <f>C5*50+20</f>
         <v>95</v>
       </c>
-      <c r="E5" s="9">
-        <f t="shared" si="1"/>
+      <c r="E5" s="5">
+        <f>(B5+D5)*1.6/7.4-1.99</f>
         <v>55.0910810810811</v>
       </c>
-      <c r="F5" s="10">
-        <f t="shared" si="3"/>
+      <c r="F5" s="6">
+        <f>E5*1.2</f>
         <v>66.1092972972973</v>
       </c>
-      <c r="G5" s="9">
-        <f t="shared" si="2"/>
+      <c r="G5" s="5">
+        <f>(B5+D5)*1.6/7.4</f>
         <v>57.0810810810811</v>
       </c>
-      <c r="J5" s="12"/>
+      <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="1">
         <v>90</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="1">
         <v>1.2</v>
       </c>
-      <c r="D6" s="8">
-        <f t="shared" si="0"/>
+      <c r="D6" s="1">
+        <f>C6*50+20</f>
         <v>80</v>
       </c>
-      <c r="E6" s="9">
-        <f t="shared" si="1"/>
+      <c r="E6" s="5">
+        <f>(B6+D6)*1.6/7.4-1.99</f>
         <v>34.7667567567568</v>
       </c>
-      <c r="F6" s="10">
-        <f t="shared" si="3"/>
+      <c r="F6" s="6">
+        <f>E6*1.2</f>
         <v>41.7201081081081</v>
       </c>
-      <c r="G6" s="9">
-        <f t="shared" si="2"/>
+      <c r="G6" s="5">
+        <f>(B6+D6)*1.6/7.4</f>
         <v>36.7567567567568</v>
       </c>
-      <c r="J6" s="12"/>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="1">
         <v>95</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="1">
         <v>1.2</v>
       </c>
-      <c r="D7" s="8">
-        <f t="shared" si="0"/>
+      <c r="D7" s="1">
+        <f>C7*50+20</f>
         <v>80</v>
       </c>
-      <c r="E7" s="9">
-        <f t="shared" si="1"/>
+      <c r="E7" s="5">
+        <f>(B7+D7)*1.6/7.4-1.99</f>
         <v>35.8478378378378</v>
       </c>
-      <c r="F7" s="10">
-        <f t="shared" si="3"/>
+      <c r="F7" s="6">
+        <f>E7*1.2</f>
         <v>43.0174054054054</v>
       </c>
-      <c r="G7" s="9">
-        <f t="shared" si="2"/>
+      <c r="G7" s="5">
+        <f>(B7+D7)*1.6/7.4</f>
         <v>37.8378378378378</v>
       </c>
-      <c r="J7" s="12"/>
+      <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="1">
         <v>99</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="1">
         <v>1.5</v>
       </c>
-      <c r="D8" s="8">
-        <f t="shared" si="0"/>
+      <c r="D8" s="1">
+        <f>C8*50+20</f>
         <v>95</v>
       </c>
-      <c r="E8" s="9">
-        <f t="shared" si="1"/>
+      <c r="E8" s="5">
+        <f>(B8+D8)*1.6/7.4-1.99</f>
         <v>39.9559459459459</v>
       </c>
-      <c r="F8" s="10">
-        <f t="shared" si="3"/>
+      <c r="F8" s="6">
+        <f>E8*1.2</f>
         <v>47.9471351351351</v>
       </c>
-      <c r="G8" s="9">
-        <f t="shared" si="2"/>
+      <c r="G8" s="5">
+        <f>(B8+D8)*1.6/7.4</f>
         <v>41.945945945946</v>
       </c>
-      <c r="J8" s="12"/>
+      <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="1">
         <v>50</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="1">
         <v>0.5</v>
       </c>
-      <c r="D9" s="8">
-        <f t="shared" si="0"/>
+      <c r="D9" s="1">
+        <f>C9*50+20</f>
         <v>45</v>
       </c>
-      <c r="E9" s="9">
-        <f t="shared" si="1"/>
+      <c r="E9" s="5">
+        <f>(B9+D9)*1.6/7.4-1.99</f>
         <v>18.5505405405405</v>
       </c>
-      <c r="F9" s="10">
-        <f t="shared" si="3"/>
+      <c r="F9" s="6">
+        <f>E9*1.2</f>
         <v>22.2606486486487</v>
       </c>
-      <c r="G9" s="9">
-        <f t="shared" si="2"/>
+      <c r="G9" s="5">
+        <f>(B9+D9)*1.6/7.4</f>
         <v>20.5405405405405</v>
       </c>
-      <c r="J9" s="12"/>
+      <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="1">
         <v>35</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="1">
         <v>0.2</v>
       </c>
-      <c r="D10" s="8">
-        <f t="shared" si="0"/>
+      <c r="D10" s="1">
+        <f>C10*50+20</f>
         <v>30</v>
       </c>
-      <c r="E10" s="9">
-        <f t="shared" si="1"/>
+      <c r="E10" s="5">
+        <f>(B10+D10)*1.6/7.4-1.99</f>
         <v>12.0640540540541</v>
       </c>
-      <c r="F10" s="10">
-        <f t="shared" si="3"/>
+      <c r="F10" s="6">
+        <f>E10*1.2</f>
         <v>14.4768648648649</v>
       </c>
-      <c r="G10" s="9">
-        <f t="shared" si="2"/>
+      <c r="G10" s="5">
+        <f>(B10+D10)*1.6/7.4</f>
         <v>14.0540540540541</v>
       </c>
-      <c r="J10" s="12"/>
+      <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="1">
         <v>20</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="1">
         <v>0.2</v>
       </c>
-      <c r="D11" s="8">
-        <f t="shared" si="0"/>
+      <c r="D11" s="1">
+        <f>C11*50+20</f>
         <v>30</v>
       </c>
-      <c r="E11" s="9">
-        <f t="shared" si="1"/>
+      <c r="E11" s="5">
+        <f>(B11+D11)*1.6/7.4-1.99</f>
         <v>8.82081081081081</v>
       </c>
-      <c r="F11" s="10">
-        <f t="shared" si="3"/>
+      <c r="F11" s="6">
+        <f>E11*1.2</f>
         <v>10.584972972973</v>
       </c>
-      <c r="G11" s="9">
-        <f t="shared" si="2"/>
+      <c r="G11" s="5">
+        <f>(B11+D11)*1.6/7.4</f>
         <v>10.8108108108108</v>
       </c>
-      <c r="J11" s="12"/>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="1">
         <v>35</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="1">
         <v>0.2</v>
       </c>
-      <c r="D12" s="8">
-        <f t="shared" si="0"/>
+      <c r="D12" s="1">
+        <f>C12*50+20</f>
         <v>30</v>
       </c>
-      <c r="E12" s="9">
-        <f t="shared" si="1"/>
+      <c r="E12" s="5">
+        <f>(B12+D12)*1.6/7.4-1.99</f>
         <v>12.0640540540541</v>
       </c>
-      <c r="F12" s="10">
-        <f t="shared" si="3"/>
+      <c r="F12" s="6">
+        <f>E12*1.2</f>
         <v>14.4768648648649</v>
       </c>
-      <c r="G12" s="9">
-        <f t="shared" si="2"/>
+      <c r="G12" s="5">
+        <f>(B12+D12)*1.6/7.4</f>
         <v>14.0540540540541</v>
       </c>
-      <c r="J12" s="12"/>
+      <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="1">
         <v>35</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="1">
         <v>0.3</v>
       </c>
-      <c r="D13" s="8">
-        <f t="shared" si="0"/>
+      <c r="D13" s="1">
+        <f>C13*50+20</f>
         <v>35</v>
       </c>
-      <c r="E13" s="9">
-        <f t="shared" si="1"/>
+      <c r="E13" s="5">
+        <f>(B13+D13)*1.6/7.4-1.99</f>
         <v>13.1451351351351</v>
       </c>
-      <c r="F13" s="10">
-        <f t="shared" si="3"/>
+      <c r="F13" s="6">
+        <f>E13*1.2</f>
         <v>15.7741621621622</v>
       </c>
-      <c r="G13" s="9">
-        <f t="shared" si="2"/>
+      <c r="G13" s="5">
+        <f>(B13+D13)*1.6/7.4</f>
         <v>15.1351351351351</v>
       </c>
-      <c r="J13" s="12"/>
+      <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="8">
+      <c r="A14" s="1">
         <v>160</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="1">
         <v>85</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="1">
         <v>1.8</v>
       </c>
-      <c r="D14" s="8">
-        <f t="shared" si="0"/>
+      <c r="D14" s="1">
+        <f>C14*50+20</f>
         <v>110</v>
       </c>
-      <c r="E14" s="9">
-        <f t="shared" si="1"/>
+      <c r="E14" s="5">
+        <f>(B14+D14)*1.6/7.4-1.99</f>
         <v>40.1721621621622</v>
       </c>
-      <c r="F14" s="10">
-        <f t="shared" si="3"/>
+      <c r="F14" s="6">
+        <f>E14*1.2</f>
         <v>48.2065945945946</v>
       </c>
-      <c r="G14" s="9">
-        <f t="shared" si="2"/>
+      <c r="G14" s="5">
+        <f>(B14+D14)*1.6/7.4</f>
         <v>42.1621621621622</v>
       </c>
-      <c r="J14" s="12"/>
+      <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="8">
+      <c r="A15" s="1">
         <v>200</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="1">
         <v>95</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="1">
         <v>2.2</v>
       </c>
-      <c r="D15" s="8">
-        <f t="shared" si="0"/>
+      <c r="D15" s="1">
+        <f>C15*50+20</f>
         <v>130</v>
       </c>
-      <c r="E15" s="9">
-        <f t="shared" si="1"/>
+      <c r="E15" s="5">
+        <f>(B15+D15)*1.6/7.4-1.99</f>
         <v>46.6586486486486</v>
       </c>
-      <c r="F15" s="10">
-        <f t="shared" si="3"/>
+      <c r="F15" s="6">
+        <f>E15*1.2</f>
         <v>55.9903783783784</v>
       </c>
-      <c r="G15" s="9">
-        <f t="shared" si="2"/>
+      <c r="G15" s="5">
+        <f>(B15+D15)*1.6/7.4</f>
         <v>48.6486486486486</v>
       </c>
-      <c r="J15" s="12"/>
+      <c r="J15" s="8"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="8">
+      <c r="A16" s="1">
         <v>220</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="1">
         <v>105</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="1">
         <v>2.3</v>
       </c>
-      <c r="D16" s="8">
-        <f t="shared" si="0"/>
+      <c r="D16" s="1">
+        <f>C16*50+20</f>
         <v>135</v>
       </c>
-      <c r="E16" s="9">
-        <f t="shared" si="1"/>
+      <c r="E16" s="5">
+        <f>(B16+D16)*1.6/7.4-1.99</f>
         <v>49.9018918918919</v>
       </c>
-      <c r="F16" s="10">
-        <f t="shared" si="3"/>
+      <c r="F16" s="6">
+        <f>E16*1.2</f>
         <v>59.8822702702703</v>
       </c>
-      <c r="G16" s="9">
-        <f t="shared" si="2"/>
+      <c r="G16" s="5">
+        <f>(B16+D16)*1.6/7.4</f>
         <v>51.8918918918919</v>
       </c>
-      <c r="J16" s="12"/>
+      <c r="J16" s="8"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="8">
+      <c r="A17" s="1">
         <v>160</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="1">
         <v>116</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="1">
         <v>1.5</v>
       </c>
-      <c r="D17" s="8">
-        <f t="shared" si="0"/>
+      <c r="D17" s="1">
+        <f>C17*50+20</f>
         <v>95</v>
       </c>
-      <c r="E17" s="9">
-        <f t="shared" si="1"/>
+      <c r="E17" s="5">
+        <f>(B17+D17)*1.6/7.4-1.99</f>
         <v>43.6316216216216</v>
       </c>
-      <c r="F17" s="10">
-        <f t="shared" si="3"/>
+      <c r="F17" s="6">
+        <f>E17*1.2</f>
         <v>52.3579459459459</v>
       </c>
-      <c r="G17" s="9">
-        <f t="shared" si="2"/>
+      <c r="G17" s="5">
+        <f>(B17+D17)*1.6/7.4</f>
         <v>45.6216216216216</v>
       </c>
-      <c r="J17" s="12"/>
+      <c r="J17" s="8"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="8">
+      <c r="A18" s="1">
         <v>200</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="1">
         <v>152</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="1">
         <v>2</v>
       </c>
-      <c r="D18" s="8">
-        <f t="shared" si="0"/>
+      <c r="D18" s="1">
+        <f>C18*50+20</f>
         <v>120</v>
       </c>
-      <c r="E18" s="9">
-        <f t="shared" si="1"/>
+      <c r="E18" s="5">
+        <f>(B18+D18)*1.6/7.4-1.99</f>
         <v>56.8208108108108</v>
       </c>
-      <c r="F18" s="10">
-        <f t="shared" si="3"/>
+      <c r="F18" s="6">
+        <f>E18*1.2</f>
         <v>68.184972972973</v>
       </c>
-      <c r="G18" s="9">
-        <f t="shared" si="2"/>
+      <c r="G18" s="5">
+        <f>(B18+D18)*1.6/7.4</f>
         <v>58.8108108108108</v>
       </c>
-      <c r="J18" s="12"/>
+      <c r="J18" s="8"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="8">
+      <c r="A19" s="1">
         <v>220</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="1">
         <v>179</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="1">
         <v>2.1</v>
       </c>
-      <c r="D19" s="8">
-        <f t="shared" si="0"/>
+      <c r="D19" s="1">
+        <f>C19*50+20</f>
         <v>125</v>
       </c>
-      <c r="E19" s="9">
-        <f t="shared" si="1"/>
+      <c r="E19" s="5">
+        <f>(B19+D19)*1.6/7.4-1.99</f>
         <v>63.7397297297297</v>
       </c>
-      <c r="F19" s="10">
-        <f t="shared" si="3"/>
+      <c r="F19" s="6">
+        <f>E19*1.2</f>
         <v>76.4876756756757</v>
       </c>
-      <c r="G19" s="9">
-        <f t="shared" si="2"/>
+      <c r="G19" s="5">
+        <f>(B19+D19)*1.6/7.4</f>
         <v>65.7297297297297</v>
       </c>
-      <c r="J19" s="12"/>
+      <c r="J19" s="8"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="1">
         <v>12</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="1">
         <v>0.1</v>
       </c>
-      <c r="D20" s="8">
-        <f t="shared" si="0"/>
+      <c r="D20" s="1">
+        <f>C20*50+20</f>
         <v>25</v>
       </c>
-      <c r="E20" s="9">
-        <f t="shared" si="1"/>
+      <c r="E20" s="5">
+        <f>(B20+D20)*1.6/7.4-1.99</f>
         <v>6.01</v>
       </c>
-      <c r="F20" s="10">
-        <f t="shared" si="3"/>
+      <c r="F20" s="6">
+        <f>E20*1.2</f>
         <v>7.212</v>
       </c>
-      <c r="G20" s="9">
-        <f t="shared" si="2"/>
+      <c r="G20" s="5">
+        <f>(B20+D20)*1.6/7.4</f>
         <v>8</v>
       </c>
-      <c r="J20" s="12"/>
+      <c r="J20" s="8"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="1">
         <v>22</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="1">
         <v>0.2</v>
       </c>
-      <c r="D21" s="8">
-        <f t="shared" si="0"/>
+      <c r="D21" s="1">
+        <f>C21*50+20</f>
         <v>30</v>
       </c>
-      <c r="E21" s="9">
-        <f t="shared" si="1"/>
+      <c r="E21" s="5">
+        <f>(B21+D21)*1.6/7.4-1.99</f>
         <v>9.25324324324324</v>
       </c>
-      <c r="F21" s="10">
-        <f t="shared" si="3"/>
+      <c r="F21" s="6">
+        <f>E21*1.2</f>
         <v>11.1038918918919</v>
       </c>
-      <c r="G21" s="9">
-        <f t="shared" si="2"/>
+      <c r="G21" s="5">
+        <f>(B21+D21)*1.6/7.4</f>
         <v>11.2432432432432</v>
       </c>
-      <c r="J21" s="12"/>
+      <c r="J21" s="8"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="8">
+      <c r="A22" s="1">
         <v>1022</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="1">
         <v>32</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="1">
         <v>0.2</v>
       </c>
-      <c r="D22" s="8">
-        <f t="shared" si="0"/>
+      <c r="D22" s="1">
+        <f>C22*50+20</f>
         <v>30</v>
       </c>
-      <c r="E22" s="9">
-        <f t="shared" si="1"/>
+      <c r="E22" s="5">
+        <f>(B22+D22)*1.6/7.4-1.99</f>
         <v>11.4154054054054</v>
       </c>
-      <c r="F22" s="10">
-        <f t="shared" si="3"/>
+      <c r="F22" s="6">
+        <f>E22*1.2</f>
         <v>13.6984864864865</v>
       </c>
-      <c r="G22" s="9">
-        <f t="shared" si="2"/>
+      <c r="G22" s="5">
+        <f>(B22+D22)*1.6/7.4</f>
         <v>13.4054054054054</v>
       </c>
-      <c r="J22" s="12"/>
+      <c r="J22" s="8"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="8">
+      <c r="A23" s="1">
         <v>4050</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="1">
         <v>30</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="1">
         <v>0.2</v>
       </c>
-      <c r="D23" s="8">
-        <f t="shared" si="0"/>
+      <c r="D23" s="1">
+        <f>C23*50+20</f>
         <v>30</v>
       </c>
-      <c r="E23" s="9">
-        <f t="shared" si="1"/>
+      <c r="E23" s="5">
+        <f>(B23+D23)*1.6/7.4-1.99</f>
         <v>10.982972972973</v>
       </c>
-      <c r="F23" s="10">
-        <f t="shared" si="3"/>
+      <c r="F23" s="6">
+        <f>E23*1.2</f>
         <v>13.1795675675676</v>
       </c>
-      <c r="G23" s="9">
-        <f t="shared" si="2"/>
+      <c r="G23" s="5">
+        <f>(B23+D23)*1.6/7.4</f>
         <v>12.972972972973</v>
       </c>
-      <c r="J23" s="12"/>
+      <c r="J23" s="8"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="8">
+      <c r="A24" s="1">
         <v>6020</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="1">
         <v>35</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="1">
         <v>0.2</v>
       </c>
-      <c r="D24" s="8">
-        <f t="shared" si="0"/>
+      <c r="D24" s="1">
+        <f>C24*50+20</f>
         <v>30</v>
       </c>
-      <c r="E24" s="9">
-        <f t="shared" si="1"/>
+      <c r="E24" s="5">
+        <f>(B24+D24)*1.6/7.4-1.99</f>
         <v>12.0640540540541</v>
       </c>
-      <c r="F24" s="10">
-        <f t="shared" si="3"/>
+      <c r="F24" s="6">
+        <f>E24*1.2</f>
         <v>14.4768648648649</v>
       </c>
-      <c r="G24" s="9">
-        <f t="shared" si="2"/>
+      <c r="G24" s="5">
+        <f>(B24+D24)*1.6/7.4</f>
         <v>14.0540540540541</v>
       </c>
-      <c r="J24" s="12"/>
+      <c r="J24" s="8"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="8">
+      <c r="A25" s="1">
         <v>1059</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="1">
         <v>35</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="1">
         <v>0.2</v>
       </c>
-      <c r="D25" s="8">
-        <f t="shared" si="0"/>
+      <c r="D25" s="1">
+        <f>C25*50+20</f>
         <v>30</v>
       </c>
-      <c r="E25" s="9">
-        <f t="shared" si="1"/>
+      <c r="E25" s="5">
+        <f>(B25+D25)*1.6/7.4-1.99</f>
         <v>12.0640540540541</v>
       </c>
-      <c r="F25" s="10">
-        <f t="shared" si="3"/>
+      <c r="F25" s="6">
+        <f>E25*1.2</f>
         <v>14.4768648648649</v>
       </c>
-      <c r="G25" s="9">
-        <f t="shared" si="2"/>
+      <c r="G25" s="5">
+        <f>(B25+D25)*1.6/7.4</f>
         <v>14.0540540540541</v>
       </c>
-      <c r="J25" s="12"/>
+      <c r="J25" s="8"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="8">
+      <c r="A26" s="1">
         <v>6004</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="1">
         <v>27</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="1">
         <v>0.2</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="1">
         <f>C26*50+20</f>
         <v>30</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="5">
         <f t="shared" ref="E26:E43" si="4">(B26+D26)*1.6/7.4-1.99</f>
         <v>10.3343243243243</v>
       </c>
-      <c r="F26" s="10">
-        <f t="shared" si="3"/>
+      <c r="F26" s="6">
+        <f>E26*1.2</f>
         <v>12.4011891891892</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="5">
         <f t="shared" ref="G26:G43" si="5">(B26+D26)*1.6/7.4</f>
         <v>12.3243243243243</v>
       </c>
-      <c r="J26" s="12"/>
-    </row>
-    <row r="27" spans="4:10">
-      <c r="D27" s="8">
+      <c r="J26" s="8"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B27" s="1">
+        <v>85</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="D27" s="1">
         <f t="shared" ref="D27:D43" si="6">C27*50+20</f>
+        <v>110</v>
+      </c>
+      <c r="E27" s="5">
+        <f>(B27+D27)*1.6/7.4-1.99</f>
+        <v>40.1721621621622</v>
+      </c>
+      <c r="F27" s="6">
+        <f t="shared" ref="F27:F43" si="7">E27*1.2</f>
+        <v>48.2065945945946</v>
+      </c>
+      <c r="G27" s="5">
+        <f>(B27+D27)*1.6/7.4</f>
+        <v>42.1621621621622</v>
+      </c>
+      <c r="J27" s="8"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>200</v>
+      </c>
+      <c r="B28" s="1">
+        <v>95</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2.2</v>
+      </c>
+      <c r="D28" s="1">
+        <f>C28*50+20</f>
+        <v>130</v>
+      </c>
+      <c r="E28" s="5">
+        <f>(B28+D28)*1.6/7.4-1.99</f>
+        <v>46.6586486486486</v>
+      </c>
+      <c r="F28" s="6">
+        <f>E28*1.2</f>
+        <v>55.9903783783784</v>
+      </c>
+      <c r="G28" s="5">
+        <f>(B28+D28)*1.6/7.4</f>
+        <v>48.6486486486486</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>220</v>
+      </c>
+      <c r="B29" s="1">
+        <v>105</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2.3</v>
+      </c>
+      <c r="D29" s="1">
+        <f>C29*50+20</f>
+        <v>135</v>
+      </c>
+      <c r="E29" s="5">
+        <f>(B29+D29)*1.6/7.4-1.99</f>
+        <v>49.9018918918919</v>
+      </c>
+      <c r="F29" s="6">
+        <f>E29*1.2</f>
+        <v>59.8822702702703</v>
+      </c>
+      <c r="G29" s="5">
+        <f>(B29+D29)*1.6/7.4</f>
+        <v>51.8918918918919</v>
+      </c>
+    </row>
+    <row r="30" spans="4:7">
+      <c r="D30" s="1">
+        <f>C30*50+20</f>
         <v>20</v>
       </c>
-      <c r="E27" s="9">
-        <f t="shared" si="4"/>
+      <c r="E30" s="5">
+        <f>(B30+D30)*1.6/7.4-1.99</f>
         <v>2.33432432432432</v>
       </c>
-      <c r="F27" s="10">
-        <f t="shared" ref="F27:F43" si="7">E27*1.2</f>
+      <c r="F30" s="6">
+        <f>E30*1.2</f>
         <v>2.80118918918919</v>
       </c>
-      <c r="G27" s="9">
-        <f t="shared" si="5"/>
+      <c r="G30" s="5">
+        <f>(B30+D30)*1.6/7.4</f>
         <v>4.32432432432432</v>
       </c>
-      <c r="J27" s="12"/>
-    </row>
-    <row r="28" spans="4:7">
-      <c r="D28" s="8">
-        <f t="shared" si="6"/>
+    </row>
+    <row r="31" spans="4:7">
+      <c r="D31" s="1">
+        <f>C31*50+20</f>
         <v>20</v>
       </c>
-      <c r="E28" s="9">
-        <f t="shared" si="4"/>
+      <c r="E31" s="5">
+        <f>(B31+D31)*1.6/7.4-1.99</f>
         <v>2.33432432432432</v>
       </c>
-      <c r="F28" s="10">
-        <f t="shared" si="7"/>
+      <c r="F31" s="6">
+        <f>E31*1.2</f>
         <v>2.80118918918919</v>
       </c>
-      <c r="G28" s="9">
-        <f t="shared" si="5"/>
+      <c r="G31" s="5">
+        <f>(B31+D31)*1.6/7.4</f>
         <v>4.32432432432432</v>
       </c>
     </row>
-    <row r="29" spans="4:7">
-      <c r="D29" s="8">
-        <f t="shared" si="6"/>
+    <row r="32" spans="4:7">
+      <c r="D32" s="1">
+        <f>C32*50+20</f>
         <v>20</v>
       </c>
-      <c r="E29" s="9">
-        <f t="shared" si="4"/>
+      <c r="E32" s="5">
+        <f>(B32+D32)*1.6/7.4-1.99</f>
         <v>2.33432432432432</v>
       </c>
-      <c r="F29" s="10">
-        <f t="shared" si="7"/>
+      <c r="F32" s="6">
+        <f>E32*1.2</f>
         <v>2.80118918918919</v>
       </c>
-      <c r="G29" s="9">
-        <f t="shared" si="5"/>
+      <c r="G32" s="5">
+        <f>(B32+D32)*1.6/7.4</f>
         <v>4.32432432432432</v>
       </c>
     </row>
-    <row r="30" spans="4:7">
-      <c r="D30" s="8">
-        <f t="shared" si="6"/>
+    <row r="33" spans="4:7">
+      <c r="D33" s="1">
+        <f>C33*50+20</f>
         <v>20</v>
       </c>
-      <c r="E30" s="9">
-        <f t="shared" si="4"/>
+      <c r="E33" s="5">
+        <f>(B33+D33)*1.6/7.4-1.99</f>
         <v>2.33432432432432</v>
       </c>
-      <c r="F30" s="10">
-        <f t="shared" si="7"/>
+      <c r="F33" s="6">
+        <f>E33*1.2</f>
         <v>2.80118918918919</v>
       </c>
-      <c r="G30" s="9">
-        <f t="shared" si="5"/>
+      <c r="G33" s="5">
+        <f>(B33+D33)*1.6/7.4</f>
         <v>4.32432432432432</v>
       </c>
     </row>
-    <row r="31" spans="4:7">
-      <c r="D31" s="8">
-        <f t="shared" si="6"/>
+    <row r="34" spans="4:7">
+      <c r="D34" s="1">
+        <f>C34*50+20</f>
         <v>20</v>
       </c>
-      <c r="E31" s="9">
-        <f t="shared" si="4"/>
+      <c r="E34" s="5">
+        <f>(B34+D34)*1.6/7.4-1.99</f>
         <v>2.33432432432432</v>
       </c>
-      <c r="F31" s="10">
-        <f t="shared" si="7"/>
+      <c r="F34" s="6">
+        <f>E34*1.2</f>
         <v>2.80118918918919</v>
       </c>
-      <c r="G31" s="9">
-        <f t="shared" si="5"/>
+      <c r="G34" s="5">
+        <f>(B34+D34)*1.6/7.4</f>
         <v>4.32432432432432</v>
       </c>
     </row>
-    <row r="32" spans="4:7">
-      <c r="D32" s="8">
-        <f t="shared" si="6"/>
+    <row r="35" spans="4:7">
+      <c r="D35" s="1">
+        <f>C35*50+20</f>
         <v>20</v>
       </c>
-      <c r="E32" s="9">
-        <f t="shared" si="4"/>
+      <c r="E35" s="5">
+        <f>(B35+D35)*1.6/7.4-1.99</f>
         <v>2.33432432432432</v>
       </c>
-      <c r="F32" s="10">
-        <f t="shared" si="7"/>
+      <c r="F35" s="6">
+        <f>E35*1.2</f>
         <v>2.80118918918919</v>
       </c>
-      <c r="G32" s="9">
-        <f t="shared" si="5"/>
+      <c r="G35" s="5">
+        <f>(B35+D35)*1.6/7.4</f>
         <v>4.32432432432432</v>
       </c>
     </row>
-    <row r="33" spans="4:7">
-      <c r="D33" s="8">
-        <f t="shared" si="6"/>
+    <row r="36" spans="4:7">
+      <c r="D36" s="1">
+        <f>C36*50+20</f>
         <v>20</v>
       </c>
-      <c r="E33" s="9">
-        <f t="shared" si="4"/>
+      <c r="E36" s="5">
+        <f>(B36+D36)*1.6/7.4-1.99</f>
         <v>2.33432432432432</v>
       </c>
-      <c r="F33" s="10">
-        <f t="shared" si="7"/>
+      <c r="F36" s="6">
+        <f>E36*1.2</f>
         <v>2.80118918918919</v>
       </c>
-      <c r="G33" s="9">
-        <f t="shared" si="5"/>
+      <c r="G36" s="5">
+        <f>(B36+D36)*1.6/7.4</f>
         <v>4.32432432432432</v>
       </c>
     </row>
-    <row r="34" spans="4:7">
-      <c r="D34" s="8">
-        <f t="shared" si="6"/>
+    <row r="37" spans="4:7">
+      <c r="D37" s="1">
+        <f>C37*50+20</f>
         <v>20</v>
       </c>
-      <c r="E34" s="9">
-        <f t="shared" si="4"/>
+      <c r="E37" s="5">
+        <f>(B37+D37)*1.6/7.4-1.99</f>
         <v>2.33432432432432</v>
       </c>
-      <c r="F34" s="10">
-        <f t="shared" si="7"/>
+      <c r="F37" s="6">
+        <f>E37*1.2</f>
         <v>2.80118918918919</v>
       </c>
-      <c r="G34" s="9">
-        <f t="shared" si="5"/>
+      <c r="G37" s="5">
+        <f>(B37+D37)*1.6/7.4</f>
         <v>4.32432432432432</v>
       </c>
     </row>
-    <row r="35" spans="4:7">
-      <c r="D35" s="8">
-        <f t="shared" si="6"/>
+    <row r="38" spans="4:7">
+      <c r="D38" s="1">
+        <f>C38*50+20</f>
         <v>20</v>
       </c>
-      <c r="E35" s="9">
-        <f t="shared" si="4"/>
+      <c r="E38" s="5">
+        <f>(B38+D38)*1.6/7.4-1.99</f>
         <v>2.33432432432432</v>
       </c>
-      <c r="F35" s="10">
-        <f t="shared" si="7"/>
+      <c r="F38" s="6">
+        <f>E38*1.2</f>
         <v>2.80118918918919</v>
       </c>
-      <c r="G35" s="9">
-        <f t="shared" si="5"/>
+      <c r="G38" s="5">
+        <f>(B38+D38)*1.6/7.4</f>
         <v>4.32432432432432</v>
       </c>
     </row>
-    <row r="36" spans="4:7">
-      <c r="D36" s="8">
-        <f t="shared" si="6"/>
+    <row r="39" spans="4:7">
+      <c r="D39" s="1">
+        <f>C39*50+20</f>
         <v>20</v>
       </c>
-      <c r="E36" s="9">
-        <f t="shared" si="4"/>
+      <c r="E39" s="5">
+        <f>(B39+D39)*1.6/7.4-1.99</f>
         <v>2.33432432432432</v>
       </c>
-      <c r="F36" s="10">
-        <f t="shared" si="7"/>
+      <c r="F39" s="6">
+        <f>E39*1.2</f>
         <v>2.80118918918919</v>
       </c>
-      <c r="G36" s="9">
-        <f t="shared" si="5"/>
+      <c r="G39" s="5">
+        <f>(B39+D39)*1.6/7.4</f>
         <v>4.32432432432432</v>
       </c>
     </row>
-    <row r="37" spans="4:7">
-      <c r="D37" s="8">
-        <f t="shared" si="6"/>
+    <row r="40" spans="4:7">
+      <c r="D40" s="1">
+        <f>C40*50+20</f>
         <v>20</v>
       </c>
-      <c r="E37" s="9">
-        <f t="shared" si="4"/>
+      <c r="E40" s="5">
+        <f>(B40+D40)*1.6/7.4-1.99</f>
         <v>2.33432432432432</v>
       </c>
-      <c r="F37" s="10">
-        <f t="shared" si="7"/>
+      <c r="F40" s="6">
+        <f>E40*1.2</f>
         <v>2.80118918918919</v>
       </c>
-      <c r="G37" s="9">
-        <f t="shared" si="5"/>
+      <c r="G40" s="5">
+        <f>(B40+D40)*1.6/7.4</f>
         <v>4.32432432432432</v>
       </c>
     </row>
-    <row r="38" spans="4:7">
-      <c r="D38" s="8">
-        <f t="shared" si="6"/>
+    <row r="41" spans="4:7">
+      <c r="D41" s="1">
+        <f>C41*50+20</f>
         <v>20</v>
       </c>
-      <c r="E38" s="9">
-        <f t="shared" si="4"/>
+      <c r="E41" s="5">
+        <f>(B41+D41)*1.6/7.4-1.99</f>
         <v>2.33432432432432</v>
       </c>
-      <c r="F38" s="10">
-        <f t="shared" si="7"/>
+      <c r="F41" s="6">
+        <f>E41*1.2</f>
         <v>2.80118918918919</v>
       </c>
-      <c r="G38" s="9">
-        <f t="shared" si="5"/>
+      <c r="G41" s="5">
+        <f>(B41+D41)*1.6/7.4</f>
         <v>4.32432432432432</v>
       </c>
     </row>
-    <row r="39" spans="4:7">
-      <c r="D39" s="8">
-        <f t="shared" si="6"/>
+    <row r="42" spans="4:7">
+      <c r="D42" s="1">
+        <f>C42*50+20</f>
         <v>20</v>
       </c>
-      <c r="E39" s="9">
-        <f t="shared" si="4"/>
+      <c r="E42" s="5">
+        <f>(B42+D42)*1.6/7.4-1.99</f>
         <v>2.33432432432432</v>
       </c>
-      <c r="F39" s="10">
-        <f t="shared" si="7"/>
+      <c r="F42" s="6">
+        <f>E42*1.2</f>
         <v>2.80118918918919</v>
       </c>
-      <c r="G39" s="9">
-        <f t="shared" si="5"/>
+      <c r="G42" s="5">
+        <f>(B42+D42)*1.6/7.4</f>
         <v>4.32432432432432</v>
       </c>
     </row>
-    <row r="40" spans="4:7">
-      <c r="D40" s="8">
-        <f t="shared" si="6"/>
+    <row r="43" spans="4:7">
+      <c r="D43" s="1">
+        <f>C43*50+20</f>
         <v>20</v>
       </c>
-      <c r="E40" s="9">
-        <f t="shared" si="4"/>
+      <c r="E43" s="5">
+        <f>(B43+D43)*1.6/7.4-1.99</f>
         <v>2.33432432432432</v>
       </c>
-      <c r="F40" s="10">
-        <f t="shared" si="7"/>
+      <c r="F43" s="6">
+        <f>E43*1.2</f>
         <v>2.80118918918919</v>
       </c>
-      <c r="G40" s="9">
-        <f t="shared" si="5"/>
-        <v>4.32432432432432</v>
-      </c>
-    </row>
-    <row r="41" spans="4:7">
-      <c r="D41" s="8">
-        <f t="shared" si="6"/>
-        <v>20</v>
-      </c>
-      <c r="E41" s="9">
-        <f t="shared" si="4"/>
-        <v>2.33432432432432</v>
-      </c>
-      <c r="F41" s="10">
-        <f t="shared" si="7"/>
-        <v>2.80118918918919</v>
-      </c>
-      <c r="G41" s="9">
-        <f t="shared" si="5"/>
-        <v>4.32432432432432</v>
-      </c>
-    </row>
-    <row r="42" spans="4:7">
-      <c r="D42" s="8">
-        <f t="shared" si="6"/>
-        <v>20</v>
-      </c>
-      <c r="E42" s="9">
-        <f t="shared" si="4"/>
-        <v>2.33432432432432</v>
-      </c>
-      <c r="F42" s="10">
-        <f t="shared" si="7"/>
-        <v>2.80118918918919</v>
-      </c>
-      <c r="G42" s="9">
-        <f t="shared" si="5"/>
-        <v>4.32432432432432</v>
-      </c>
-    </row>
-    <row r="43" spans="4:7">
-      <c r="D43" s="8">
-        <f t="shared" si="6"/>
-        <v>20</v>
-      </c>
-      <c r="E43" s="9">
-        <f t="shared" si="4"/>
-        <v>2.33432432432432</v>
-      </c>
-      <c r="F43" s="10">
-        <f t="shared" si="7"/>
-        <v>2.80118918918919</v>
-      </c>
-      <c r="G43" s="9">
-        <f t="shared" si="5"/>
+      <c r="G43" s="5">
+        <f>(B43+D43)*1.6/7.4</f>
         <v>4.32432432432432</v>
       </c>
     </row>
@@ -4396,12 +4371,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -4431,64 +4406,64 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C1" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="G1" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="H1" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="I1" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="J1" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="K1" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="L1" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="M1" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="N1" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="O1" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="P1" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="Q1" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="R1" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="S1" s="4" t="s">
         <v>261</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -4498,247 +4473,242 @@
       <c r="B2" s="1">
         <v>20.99</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="G2" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="H2" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="I2" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="J2" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="K2" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="L2" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="M2" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="N2" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="O2" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="P2" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="Q2" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="R2" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="S2" s="4" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="3" spans="3:20">
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6" t="s">
+      <c r="T2" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="I3" s="6" t="s">
+    </row>
+    <row r="3" spans="8:20">
+      <c r="H3" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="I3" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="J3" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="K3" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="L3" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="M3" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="N3" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="O3" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="P3" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="Q3" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="R3" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="S3" s="4" t="s">
         <v>292</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="8:27">
       <c r="H5" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M5" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="O5" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="N5" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>323</v>
-      </c>
       <c r="P5" s="4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="X5" s="4" t="s">
         <v>122</v>
       </c>
       <c r="Y5" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
